--- a/drafts/bpm/comparativas/COMPARATIVAS.xlsx
+++ b/drafts/bpm/comparativas/COMPARATIVAS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7695"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7110"/>
   </bookViews>
   <sheets>
     <sheet name="COMPARATIVA-SW-BPM" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="223">
   <si>
     <t>ADONIS: CE</t>
   </si>
@@ -90,12 +90,6 @@
     <t>Gratuito</t>
   </si>
   <si>
-    <t>No gratui- to. Existe edición RTM y Retail</t>
-  </si>
-  <si>
-    <t>No gratuito. Existe edición RTM y</t>
-  </si>
-  <si>
     <t>Proceso de Instalación</t>
   </si>
   <si>
@@ -105,71 +99,27 @@
     <t>Módulos que ofrece</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Diagra- ma de flujo, general, inge- niería, mapas y planos de planta, nego- cios, progra- mación, red, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="8.5"/>
-        <color rgb="FF231F20"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">software </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8.5"/>
-        <color rgb="FF231F20"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>y bases de datos</t>
-    </r>
-  </si>
-  <si>
     <t>Formatos de exportación</t>
   </si>
   <si>
     <t>Cuenta con variedad de carac- terísticas que ha- cen más sencillo su uso. Cuenta con una ayuda para or- ganizar automá- ticamen- te los conec- tores en algunos casos</t>
   </si>
   <si>
-    <t>Es intuiti- va, por ser de Micro- soft. La interfaz es fami- liar a los usuarios y ahorra tiempo  al mode- lado. La valida- ción del diagra- ma  es útil y completa</t>
-  </si>
-  <si>
     <t>Dificultades</t>
   </si>
   <si>
     <t>Algunas veces es comple- jo el uso de co- nectores, ya que las co- nexiones solo se pueden hacer hacia la derecha lo que com- plica la conexión de un objeto a otro</t>
   </si>
   <si>
-    <t>No cuenta con eventos interme- dios ni diferentes tipos de tareas, lo cual pue- de causar confusión a la hora de leer el diagrama</t>
-  </si>
-  <si>
-    <t>Trayecto- ria en el mercado</t>
-  </si>
-  <si>
     <t>Fue creado en 1999 y su última versión fue crea- da en el 2012</t>
   </si>
   <si>
-    <t>Fue fundada en el año 2009 y es actualiza- da cada mes</t>
-  </si>
-  <si>
     <t>Versión soportada de BPMN</t>
   </si>
   <si>
     <t>BPMN 2.0</t>
   </si>
   <si>
-    <t>IBM WebShere Bu- siness Modeler</t>
-  </si>
-  <si>
-    <t>Oracle BPM Suite</t>
-  </si>
-  <si>
     <t>BizTalk</t>
   </si>
   <si>
@@ -278,12 +228,6 @@
     <t>Un jugador veterano en el espacio BPM tradicional, con su webMethods BPMS, Software AG ofrece un sólido soporte para la gestión dinámica de casos, RPA integrado, soporte extenso de documentos y modelado de procesos. Con la incorporación e integración de webMethods AgileApps para el desarrollo rápido y de código bajo, Software AG ahora tiene una cartera que puede ayudar a una organización a expandirse en las implementaciones de DPA. Con la adquisición de Zementis el año pasado, Software AG ahora puede ampliar sus ya significativas capacidades de análisis con un verdadero marco de inteligencia artificial. También ha invertido mucho y ha encontrado tracción en el mercado con su soporte para procesos impulsados ​​por IoT. Los clientes han expresado un gran interés en la última versión, que evaluamos para esta Forrester Wave,</t>
   </si>
   <si>
-    <t>IBM continúa ofreciendo una amplia gama de capacidades para abordar aplicaciones de procesos profundas, complejas y altamente escalables. Sus capacidades incluyen soporte para la administración avanzada de decisiones, RPA integrado, administración dinámica de casos y más. También ofrece un sólido soporte para el desarrollo de código bajo y la reutilización simple de objetos, y por lo tanto está bien posicionado para las organizaciones que buscan llevar DPA de ancho. Sin embargo, lo más interesante de IBM es su disposición y capacidad de ser disruptivo. La reciente presentación del asistente de negocios digitales adopta un enfoque muy diferente para la automatización de las tareas rutinarias y la toma de decisiones para los empleados al permitir que individuos o grupos pequeños accedan a una herramienta fácil de usar para automatizar tareas repetitivas y proporcionar información. Además, IBM todavía está en las primeras etapas de integración de sus servicios cognitivos de Watson en sus ofertas de procesos. Con la IA presentándose como la próxima gran oportunidad en DPA, la profunda integración de Watson tiene un tremendo potencial. Los clientes que evaluaron a IBM junto con los competidores se mostraron satisfechos con el poder de la plataforma, pero mencionaron que otros proveedores tenían una mayor funcionalidad de interfaz de usuario que podría conducir a una mejor experiencia de usuario. IBM ha reconocido este problema y ha revisado su conjunto de herramientas de interfaz de usuario, y la expectativa, por parte de Forrester, es que estos problemas se hayan mitigado. Los clientes que evaluaron a IBM junto con sus competidores se mostraron satisfechos con el poder de la plataforma, pero mencionaron que otros proveedores tenían una mayor funcionalidad de interfaz de usuario que podría conducir a una mejor experiencia de usuario. IBM ha reconocido este problema y ha revisado su conjunto de herramientas de interfaz de usuario, y la expectativa, por parte de Forrester, es que estos problemas se hayan mitigado. Los clientes que evaluaron a IBM junto con sus competidores se mostraron satisfechos con el poder de la plataforma, pero mencionaron que otros proveedores tenían una mayor funcionalidad de interfaz de usuario que podría conducir a una mejor experiencia de usuario. IBM ha reconocido este problema y ha revisado su conjunto de herramientas de interfaz de usuario, y la expectativa, por parte de Forrester, es que estos problemas se hayan mitigado.</t>
-  </si>
-  <si>
-    <t>Los grandes proveedores que han estado en un mercado durante mucho tiempo generalmente han tenido dificultades para reinventarse a sí mismos y convertirse en disruptores, pero esa es exactamente la estrategia de Oracle. Oracle Process Cloud Server (PCS) forma parte de su cambio general para convertirse en un importante proveedor de aplicaciones en la nube. Si bien sus ofertas tradicionales de BPM permanecen disponibles, su enfoque estratégico se centra en la nueva oferta en la nube, que incluye capacidades como el aprovisionamiento instantáneo simple sin soporte de TI y sin un proceso de venta tradicional. A medida que Oracle desarrolle los servicios existentes en la nube, como administración de API y desarrollo móvil, se diseñarán para una integración simple con PCS. Oracle todavía es relativamente temprano en este enfoque, pero ha creado una oferta sólida y, lo que es más importante, ha sentado las bases para la entrega rápida y la integración de nuevas capacidades. A medida que Oracle realiza esta transición, principalmente de un proveedor de procesos local a uno principalmente en la nube, las organizaciones que tienen necesidades profundas y complejas pueden esperar que la oferta en la nube se ponga al día, pero, estratégicamente, este cambio representa un movimiento progresivo para Oracle . Los clientes de referencia fueron positivos acerca de la experiencia de PCS hasta la fecha, al tiempo que reconocieron que se encontraban en las primeras etapas del camino y que aún no habían abordado las aplicaciones más complejas, pero que tenían planes para hacerlo. A medida que Oracle realiza esta transición, principalmente de un proveedor de procesos local a uno principalmente en la nube, las organizaciones que tienen necesidades profundas y complejas pueden esperar que la oferta en la nube se ponga al día, pero, estratégicamente, este cambio representa un movimiento progresivo para Oracle . Los clientes de referencia fueron positivos acerca de la experiencia de PCS hasta la fecha, al tiempo que reconocieron que se encontraban en las primeras etapas del camino y que aún no habían abordado las aplicaciones más complejas, pero que tenían planes para hacerlo. A medida que Oracle realiza esta transición, principalmente de un proveedor de procesos local a uno principalmente en la nube, las organizaciones que tienen necesidades profundas y complejas pueden esperar que la oferta en la nube se ponga al día, pero, estratégicamente, este cambio representa un movimiento progresivo para Oracle . Los clientes de referencia fueron positivos acerca de la experiencia de PCS hasta la fecha, al tiempo que reconocieron que se encontraban en las primeras etapas del camino y que aún no habían abordado las aplicaciones más complejas, pero que tenían planes para hacerlo.</t>
-  </si>
-  <si>
     <t>Newgen Software</t>
   </si>
   <si>
@@ -354,12 +298,6 @@
   </si>
   <si>
     <t>http:// intaliodesigner. software. informer. com/</t>
-  </si>
-  <si>
-    <t>http:// www. signavio. com/es/</t>
-  </si>
-  <si>
-    <t>No re- quiere ins- talación para hacer uso del programa. Se debe crear un nombre de usuario y una contraseña en la web para hacer uso de esta he- rramienta por 30 días</t>
   </si>
   <si>
     <t xml:space="preserve">En caso de no tener licencia es posible descargar versión de prueba. Sólo puede ser instalado sobre Windows 7 o Windows 8. </t>
@@ -405,9 +343,6 @@
     <t>WY- SIWYG creación e inte- gración de for- mularios AJAX,la gestión de flujo de tra- bajo y la supervi- sión de procesos y gestión de la in- teracción humana con el marco de tra- bajo de adminis- tración extensi- ble</t>
   </si>
   <si>
-    <t>Quic- kModel, BPMN 2.0 procesos de modelación, simulación de procesos, modelo de repositorios, funciones de colaboración y publicación de procesos de documentación</t>
-  </si>
-  <si>
     <t>XML SOAP</t>
   </si>
   <si>
@@ -446,12 +381,6 @@
   </si>
   <si>
     <t>Es difícil hacer las co- nexiones, los lanes se de- ben alinear manualmen- te en el pool. La manera para cambiar el tipo de elemento es más manual que en las demás herramientas</t>
-  </si>
-  <si>
-    <t>Es difícil mode- lar los subpro- cesos por falta de espa- cio. No cuenta con las opciones de los Eventos de BPMN que posee el Visio 2010</t>
-  </si>
-  <si>
-    <t>Alta trayecto- ria en el mercado, sin em- bargo, trabajar con BPMN es relativa- mente joven, ya que surgió apenas en 2010 con el Visio 2010</t>
   </si>
   <si>
     <t>Última Versión estudiada</t>
@@ -741,12 +670,184 @@
   <si>
     <t>https://www.everteam.com/en/process-management/</t>
   </si>
+  <si>
+    <t xml:space="preserve"> - Simulación de procesos y control de costes, recursos</t>
+  </si>
+  <si>
+    <t>No requiere instalación para hacer uso del programa. Se debe crear un nombre de usuario y una contraseña en la web para hacer uso de esta herramienta por 30 días</t>
+  </si>
+  <si>
+    <t>PAGO</t>
+  </si>
+  <si>
+    <t>https://www.signavio.com</t>
+  </si>
+  <si>
+    <t>- Procesos de modelación
+- Simulación de procesos
+- Modelo de datos
+- Interfaz de usuario de colaboración y publicación de procesos</t>
+  </si>
+  <si>
+    <t>No he encontrado mucha documentacion disponible sobre los modulos de interfaz de usuario, motor de procesos como tal, aunque la documentacion dice que lo hace</t>
+  </si>
+  <si>
+    <t>Fue fundada en el año 2009 y es actualizada cada mes</t>
+  </si>
+  <si>
+    <t>Lo veo mas como una herramienta de modelado con funciones avanzadas.
+Potente para la simulacion de procesos y control de costes.
+No veo ejemplos con conectores ni sistemas complejos. Parece orientado soluciones de gestion de informacion entre departamentos, documentos, notificaciones y orquestacion de tareas.</t>
+  </si>
+  <si>
+    <t>https://youtu.be/0zaPV02taqc</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - Diagrama de flujo, general, ingeniería, mapas y planos de planta, negocios, programación, red, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8.5"/>
+        <color rgb="FF231F20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">software </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.5"/>
+        <color rgb="FF231F20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y bases de datos</t>
+    </r>
+  </si>
+  <si>
+    <t>Modelado de arquitecturas, orientado a diagramas visuales.</t>
+  </si>
+  <si>
+    <t>Trayectoria en el mercado</t>
+  </si>
+  <si>
+    <t>Al ser un producto microsoft, la interfaz es familiar a los usuarios y ahorra tiempo  al modelado.</t>
+  </si>
+  <si>
+    <t>No es una herramienta especializada para BPMN.</t>
+  </si>
+  <si>
+    <t>Alta trayectoria en el mercado, sin embargo, trabajar con BPMN es relativamente joven, ya que surgió apenas en 2010 con el Visio 2010</t>
+  </si>
+  <si>
+    <t>Sirve para salir de un apuro y documentar un diagrama y salirse del estandar de BPM añadiendo información gráfica. Pero no es una herramienta para trabajar procesos BPM</t>
+  </si>
+  <si>
+    <t>IBM WebShere Business Modeler</t>
+  </si>
+  <si>
+    <t>RPA</t>
+  </si>
+  <si>
+    <t>La automatización de procesos mediante robots (Robotic Process Automation en inglés) es toda tecnología orientada al uso de software con el objetivo de disminuir la intervención humana en el uso de aplicaciones informáticas, especialmente en tareas repetitivas que varían muy poco en cada iteración.</t>
+  </si>
+  <si>
+    <t>Flokzu</t>
+  </si>
+  <si>
+    <t>http://www-03.ibm.com/software/products/es/business-process-manager-family</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>CVS</t>
+  </si>
+  <si>
+    <t>7,0,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Permite la migración de procesos en ejecución a una nueva versión, con el fin de utilizar esos cambios de inmediato.
+- soporte para la administración avanzada de decisiones, 
+- RPA integrado, 
+- administración dinámica de casos. </t>
+  </si>
+  <si>
+    <t>- incluye WebSphere Enterprise Service Bus , proporcionando las mismas capacidades de bus de servicio empresarial
+- WebSphere Integration Developer
+- WebSphere Process Server
+- IBM WebSphere Business Monitor
+- IBM WebSphere MQ
+- IBM WebSphere Message Broker
+- IBM WebSphere Portal
+- Adaptadores IBM WebSphere
+- IBM Rational Application Developer e IBM Rational Software Architect (IC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alta disponibilidad
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -IBM, es una empresa muy seria, potente y estable
+- Se apoya en productos muy usados en grandes empresas y con mucha funcionalidad 
+- alta disponibilidad y seguridad
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Criticas sobre el interfaz de usuario y las funcionalidades que presenta.
+- los productos de IBM suelen ser caros y se recomiendan sólo a negocios que obtengan mucho beneficio de estas soluciones.
+- Los perfiles de sistemas para el mantenimiento de estas arquitecturas son caros y especializados.
+</t>
+  </si>
+  <si>
+    <t>arquitectura orientada a servicios (SOA), soluciones de alta disponibilidad y con alto beneficio esperado</t>
+  </si>
+  <si>
+    <t>Productos especializados con altos conocimientos.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xQ2GdJfmQG0</t>
+  </si>
+  <si>
+    <t>12c</t>
+  </si>
+  <si>
+    <t>Oracle Business Process Management Suite</t>
+  </si>
+  <si>
+    <t>- Suite Oracle Business Process Management (BPM)
+- Servicio Oracle Process Cloud
+- Oracle Process Accelerators</t>
+  </si>
+  <si>
+    <t>http://www.oracle.com/us/technologies/bpm/overview/index.html</t>
+  </si>
+  <si>
+    <t>http://www.oracle.com</t>
+  </si>
+  <si>
+    <t>- Motor de procesos
+- orquestacion e integracion de sistemas
+- orquestacion de tareas dentro de una organización
+- Telcos</t>
+  </si>
+  <si>
+    <t>https://youtu.be/HXhWpu17N6c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Simulacion de costes y cargas de trabajo, intuitiva y flexible, facilmente parametrizable
+- Inclusion de formularios web sencilla </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -817,8 +918,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="8.5"/>
+      <color rgb="FF231F20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -839,6 +948,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -966,7 +1081,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1017,6 +1132,28 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1323,11 +1460,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC38"/>
+  <dimension ref="A1:AD39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1342,113 +1479,118 @@
     <col min="9" max="9" width="17.5703125" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" customWidth="1"/>
-    <col min="12" max="13" width="11.140625" style="5" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" customWidth="1"/>
-    <col min="16" max="16" width="13.85546875" customWidth="1"/>
-    <col min="17" max="18" width="14.28515625" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" customWidth="1"/>
-    <col min="20" max="20" width="12.28515625" customWidth="1"/>
-    <col min="21" max="21" width="18.140625" customWidth="1"/>
-    <col min="22" max="22" width="14.140625" style="5" customWidth="1"/>
-    <col min="23" max="23" width="15" style="5" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" customWidth="1"/>
-    <col min="25" max="25" width="41.28515625" customWidth="1"/>
-    <col min="26" max="26" width="9.140625" style="5"/>
-    <col min="27" max="27" width="10.42578125" customWidth="1"/>
-    <col min="28" max="28" width="15" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" customWidth="1"/>
+    <col min="18" max="19" width="14.28515625" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" customWidth="1"/>
+    <col min="21" max="21" width="11.140625" style="5" customWidth="1"/>
+    <col min="22" max="22" width="18.140625" customWidth="1"/>
+    <col min="23" max="23" width="14.140625" style="5" customWidth="1"/>
+    <col min="24" max="24" width="15" style="5" customWidth="1"/>
+    <col min="25" max="25" width="15.7109375" customWidth="1"/>
+    <col min="26" max="26" width="41.28515625" customWidth="1"/>
+    <col min="27" max="27" width="9.140625" style="5"/>
+    <col min="28" max="28" width="10.42578125" customWidth="1"/>
+    <col min="29" max="29" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>135</v>
-      </c>
       <c r="Q1" s="6" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="R1" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="S1" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>131</v>
-      </c>
       <c r="Z1" s="6" t="s">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC1" s="16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD1" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1456,234 +1598,237 @@
         <v>9</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="M2" s="14"/>
+        <v>126</v>
+      </c>
+      <c r="L2" s="14"/>
+      <c r="M2" s="17" t="s">
+        <v>117</v>
+      </c>
       <c r="N2" s="14" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q2" s="17"/>
+        <v>126</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>93</v>
+      </c>
       <c r="R2" s="17"/>
-      <c r="S2" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="U2" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="V2" s="14" t="s">
-        <v>150</v>
-      </c>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="V2" s="17"/>
       <c r="W2" s="14" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="X2" s="14" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="Z2" s="14" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="AA2" s="14" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="AB2" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC2" s="14">
+        <v>127</v>
+      </c>
+      <c r="AC2" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD2" s="14">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="237" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" ht="237" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="M3" s="14"/>
+        <v>144</v>
+      </c>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14" t="s">
+        <v>151</v>
+      </c>
       <c r="N3" s="14" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>166</v>
+        <v>93</v>
       </c>
       <c r="Q3" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14" t="s">
-        <v>166</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="S3" s="14"/>
       <c r="T3" s="14" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="U3" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="V3" s="17" t="s">
-        <v>187</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="V3" s="14"/>
       <c r="W3" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="X3" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y3" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z3" s="14" t="s">
-        <v>32</v>
+        <v>171</v>
+      </c>
+      <c r="X3" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y3" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z3" s="17" t="s">
+        <v>154</v>
       </c>
       <c r="AA3" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="AB3" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC3" s="14">
+        <v>25</v>
+      </c>
+      <c r="AB3" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC3" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD3" s="14">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
-      <c r="L4" s="14" t="s">
-        <v>106</v>
-      </c>
+      <c r="L4" s="14"/>
       <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
+      <c r="N4" s="14" t="s">
+        <v>93</v>
+      </c>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
       <c r="R4" s="14"/>
       <c r="S4" s="14"/>
-      <c r="T4" s="14" t="s">
+      <c r="T4" s="14"/>
+      <c r="U4" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="W4" s="14" t="s">
-        <v>177</v>
-      </c>
       <c r="X4" s="14" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="Y4" s="14" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="Z4" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA4" s="14">
+        <v>165</v>
+      </c>
+      <c r="AA4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB4" s="14">
         <v>2.4</v>
       </c>
-      <c r="AB4" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="AC4" s="14">
+      <c r="AC4" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD4" s="14">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1691,249 +1836,313 @@
         <v>11</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
+      <c r="N5" s="14" t="s">
+        <v>93</v>
+      </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
       <c r="R5" s="14"/>
       <c r="S5" s="14"/>
-      <c r="T5" s="14" t="s">
-        <v>106</v>
-      </c>
+      <c r="T5" s="14"/>
       <c r="U5" s="14"/>
-      <c r="V5" s="14" t="s">
-        <v>121</v>
-      </c>
+      <c r="V5" s="14"/>
       <c r="W5" s="14" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="X5" s="14" t="s">
-        <v>179</v>
+        <v>109</v>
       </c>
       <c r="Y5" s="14" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="Z5" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA5" s="14">
+        <v>166</v>
+      </c>
+      <c r="AA5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB5" s="14">
         <v>13.5</v>
       </c>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="14">
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>96</v>
+        <v>12</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="F6" s="14"/>
+        <v>185</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>183</v>
+      </c>
       <c r="G6" s="14" t="s">
-        <v>95</v>
+        <v>184</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
+      <c r="N6" s="14" t="s">
+        <v>93</v>
+      </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
+      <c r="Q6" s="14" t="s">
+        <v>93</v>
+      </c>
       <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14" t="s">
-        <v>23</v>
-      </c>
+      <c r="S6" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="V6" s="14"/>
       <c r="W6" s="14" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="X6" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y6" s="14"/>
+        <v>188</v>
+      </c>
+      <c r="Y6" s="14" t="s">
+        <v>189</v>
+      </c>
       <c r="Z6" s="14" t="s">
-        <v>32</v>
+        <v>190</v>
       </c>
       <c r="AA6" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="14"/>
-    </row>
-    <row r="7" spans="1:29" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="AB6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC6" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD6" s="14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>128</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="F7" s="14"/>
+        <v>185</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>193</v>
+      </c>
       <c r="G7" s="14" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
+      <c r="N7" s="14" t="s">
+        <v>93</v>
+      </c>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
       <c r="R7" s="14"/>
       <c r="S7" s="14"/>
-      <c r="T7" s="14" t="s">
-        <v>106</v>
-      </c>
+      <c r="T7" s="14"/>
       <c r="U7" s="14"/>
-      <c r="V7" s="14" t="s">
-        <v>122</v>
-      </c>
+      <c r="V7" s="14"/>
       <c r="W7" s="14" t="s">
-        <v>27</v>
+        <v>195</v>
       </c>
       <c r="X7" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y7" s="14"/>
+        <v>196</v>
+      </c>
+      <c r="Y7" s="14" t="s">
+        <v>197</v>
+      </c>
       <c r="Z7" s="14" t="s">
-        <v>32</v>
+        <v>198</v>
       </c>
       <c r="AA7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB7" s="14"/>
+        <v>25</v>
+      </c>
+      <c r="AB7" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="AC7" s="14"/>
-    </row>
-    <row r="8" spans="1:29" ht="102" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD7" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="237" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>199</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>100</v>
+        <v>204</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>203</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="14"/>
+        <v>185</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>212</v>
+      </c>
       <c r="G8" s="14" t="s">
-        <v>99</v>
+        <v>213</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
+        <v>121</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>93</v>
+      </c>
       <c r="T8" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="U8" s="14"/>
+        <v>93</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>93</v>
+      </c>
       <c r="V8" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="W8" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="X8" s="14" t="s">
-        <v>125</v>
+        <v>93</v>
+      </c>
+      <c r="W8" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="X8" s="17" t="s">
+        <v>211</v>
       </c>
       <c r="Y8" s="14"/>
-      <c r="Z8" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="14"/>
-    </row>
-    <row r="9" spans="1:29" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z8" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC8" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD8" s="14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="14"/>
+        <v>216</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="E9" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>220</v>
+      </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
+      <c r="L9" s="14" t="s">
+        <v>93</v>
+      </c>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
@@ -1944,21 +2153,26 @@
       <c r="T9" s="14"/>
       <c r="U9" s="14"/>
       <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
+      <c r="W9" s="17" t="s">
+        <v>222</v>
+      </c>
       <c r="X9" s="14"/>
-      <c r="Y9" s="14" t="s">
-        <v>71</v>
-      </c>
+      <c r="Y9" s="14"/>
       <c r="Z9" s="14"/>
       <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-    </row>
-    <row r="10" spans="1:29" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB9" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC9" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD9" s="14"/>
+    </row>
+    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="B10" s="27"/>
       <c r="C10" s="14"/>
       <c r="D10" s="13"/>
       <c r="E10" s="14"/>
@@ -1981,19 +2195,16 @@
       <c r="V10" s="14"/>
       <c r="W10" s="14"/>
       <c r="X10" s="14"/>
-      <c r="Y10" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z10" s="14" t="s">
-        <v>72</v>
-      </c>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
       <c r="AA10" s="14"/>
       <c r="AB10" s="14"/>
       <c r="AC10" s="14"/>
-    </row>
-    <row r="11" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD10" s="14"/>
+    </row>
+    <row r="11" spans="1:30" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="14"/>
@@ -2022,11 +2233,14 @@
       <c r="Z11" s="14"/>
       <c r="AA11" s="14"/>
       <c r="AB11" s="14"/>
-      <c r="AC11" s="14"/>
-    </row>
-    <row r="12" spans="1:29" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC11" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD11" s="14"/>
+    </row>
+    <row r="12" spans="1:30" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="14"/>
@@ -2054,14 +2268,15 @@
       <c r="Y12" s="14"/>
       <c r="Z12" s="14"/>
       <c r="AA12" s="14"/>
-      <c r="AB12" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC12" s="14"/>
-    </row>
-    <row r="13" spans="1:29" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD12" s="14"/>
+    </row>
+    <row r="13" spans="1:30" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="14"/>
@@ -2089,14 +2304,15 @@
       <c r="Y13" s="14"/>
       <c r="Z13" s="14"/>
       <c r="AA13" s="14"/>
-      <c r="AB13" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC13" s="14"/>
-    </row>
-    <row r="14" spans="1:29" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD13" s="14"/>
+    </row>
+    <row r="14" spans="1:30" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="14"/>
@@ -2124,14 +2340,15 @@
       <c r="Y14" s="14"/>
       <c r="Z14" s="14"/>
       <c r="AA14" s="14"/>
-      <c r="AB14" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC14" s="14"/>
-    </row>
-    <row r="15" spans="1:29" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD14" s="14"/>
+    </row>
+    <row r="15" spans="1:30" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="14"/>
@@ -2159,14 +2376,15 @@
       <c r="Y15" s="14"/>
       <c r="Z15" s="14"/>
       <c r="AA15" s="14"/>
-      <c r="AB15" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC15" s="14"/>
-    </row>
-    <row r="16" spans="1:29" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD15" s="14"/>
+    </row>
+    <row r="16" spans="1:30" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="14"/>
@@ -2194,14 +2412,15 @@
       <c r="Y16" s="14"/>
       <c r="Z16" s="14"/>
       <c r="AA16" s="14"/>
-      <c r="AB16" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC16" s="14"/>
-    </row>
-    <row r="17" spans="1:29" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD16" s="14"/>
+    </row>
+    <row r="17" spans="1:30" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="14"/>
@@ -2229,14 +2448,15 @@
       <c r="Y17" s="14"/>
       <c r="Z17" s="14"/>
       <c r="AA17" s="14"/>
-      <c r="AB17" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC17" s="14"/>
-    </row>
-    <row r="18" spans="1:29" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD17" s="14"/>
+    </row>
+    <row r="18" spans="1:30" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="14"/>
@@ -2264,14 +2484,15 @@
       <c r="Y18" s="14"/>
       <c r="Z18" s="14"/>
       <c r="AA18" s="14"/>
-      <c r="AB18" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC18" s="14"/>
-    </row>
-    <row r="19" spans="1:29" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD18" s="14"/>
+    </row>
+    <row r="19" spans="1:30" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="14"/>
@@ -2299,14 +2520,15 @@
       <c r="Y19" s="14"/>
       <c r="Z19" s="14"/>
       <c r="AA19" s="14"/>
-      <c r="AB19" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC19" s="14"/>
-    </row>
-    <row r="20" spans="1:29" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD19" s="14"/>
+    </row>
+    <row r="20" spans="1:30" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="14"/>
@@ -2334,14 +2556,15 @@
       <c r="Y20" s="14"/>
       <c r="Z20" s="14"/>
       <c r="AA20" s="14"/>
-      <c r="AB20" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC20" s="14"/>
-    </row>
-    <row r="21" spans="1:29" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD20" s="14"/>
+    </row>
+    <row r="21" spans="1:30" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="14"/>
@@ -2369,14 +2592,15 @@
       <c r="Y21" s="14"/>
       <c r="Z21" s="14"/>
       <c r="AA21" s="14"/>
-      <c r="AB21" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC21" s="14"/>
-    </row>
-    <row r="22" spans="1:29" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD21" s="14"/>
+    </row>
+    <row r="22" spans="1:30" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="14"/>
@@ -2404,14 +2628,15 @@
       <c r="Y22" s="14"/>
       <c r="Z22" s="14"/>
       <c r="AA22" s="14"/>
-      <c r="AB22" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC22" s="14"/>
-    </row>
-    <row r="23" spans="1:29" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD22" s="14"/>
+    </row>
+    <row r="23" spans="1:30" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="14"/>
@@ -2439,14 +2664,15 @@
       <c r="Y23" s="14"/>
       <c r="Z23" s="14"/>
       <c r="AA23" s="14"/>
-      <c r="AB23" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC23" s="14"/>
-    </row>
-    <row r="24" spans="1:29" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD23" s="14"/>
+    </row>
+    <row r="24" spans="1:30" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="14"/>
@@ -2474,14 +2700,15 @@
       <c r="Y24" s="14"/>
       <c r="Z24" s="14"/>
       <c r="AA24" s="14"/>
-      <c r="AB24" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC24" s="14"/>
-    </row>
-    <row r="25" spans="1:29" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD24" s="14"/>
+    </row>
+    <row r="25" spans="1:30" ht="282" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="14"/>
@@ -2507,16 +2734,17 @@
       <c r="W25" s="14"/>
       <c r="X25" s="14"/>
       <c r="Y25" s="14"/>
-      <c r="Z25" s="14"/>
+      <c r="Z25" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="AA25" s="14"/>
-      <c r="AB25" s="14" t="s">
-        <v>64</v>
-      </c>
+      <c r="AB25" s="14"/>
       <c r="AC25" s="14"/>
-    </row>
-    <row r="26" spans="1:29" ht="282" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD25" s="14"/>
+    </row>
+    <row r="26" spans="1:30" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="14"/>
@@ -2541,17 +2769,18 @@
       <c r="V26" s="14"/>
       <c r="W26" s="14"/>
       <c r="X26" s="14"/>
-      <c r="Y26" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="AA26" s="14"/>
       <c r="AB26" s="14"/>
       <c r="AC26" s="14"/>
-    </row>
-    <row r="27" spans="1:29" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD26" s="14"/>
+    </row>
+    <row r="27" spans="1:30" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="14"/>
@@ -2576,17 +2805,18 @@
       <c r="V27" s="14"/>
       <c r="W27" s="14"/>
       <c r="X27" s="14"/>
-      <c r="Y27" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="AA27" s="14"/>
       <c r="AB27" s="14"/>
       <c r="AC27" s="14"/>
-    </row>
-    <row r="28" spans="1:29" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD27" s="14"/>
+    </row>
+    <row r="28" spans="1:30" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="14"/>
@@ -2611,17 +2841,18 @@
       <c r="V28" s="14"/>
       <c r="W28" s="14"/>
       <c r="X28" s="14"/>
-      <c r="Y28" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="AA28" s="14"/>
       <c r="AB28" s="14"/>
       <c r="AC28" s="14"/>
-    </row>
-    <row r="29" spans="1:29" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD28" s="14"/>
+    </row>
+    <row r="29" spans="1:30" ht="282" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="14"/>
@@ -2646,17 +2877,18 @@
       <c r="V29" s="14"/>
       <c r="W29" s="14"/>
       <c r="X29" s="14"/>
-      <c r="Y29" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="AA29" s="14"/>
       <c r="AB29" s="14"/>
       <c r="AC29" s="14"/>
-    </row>
-    <row r="30" spans="1:29" ht="282" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD29" s="14"/>
+    </row>
+    <row r="30" spans="1:30" ht="203.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="14"/>
@@ -2681,17 +2913,18 @@
       <c r="V30" s="14"/>
       <c r="W30" s="14"/>
       <c r="X30" s="14"/>
-      <c r="Y30" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z30" s="14"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="AA30" s="14"/>
       <c r="AB30" s="14"/>
       <c r="AC30" s="14"/>
-    </row>
-    <row r="31" spans="1:29" ht="203.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD30" s="14"/>
+    </row>
+    <row r="31" spans="1:30" ht="147" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="14"/>
@@ -2716,17 +2949,18 @@
       <c r="V31" s="14"/>
       <c r="W31" s="14"/>
       <c r="X31" s="14"/>
-      <c r="Y31" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z31" s="14"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="14" t="s">
+        <v>69</v>
+      </c>
       <c r="AA31" s="14"/>
       <c r="AB31" s="14"/>
       <c r="AC31" s="14"/>
-    </row>
-    <row r="32" spans="1:29" ht="147" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD31" s="14"/>
+    </row>
+    <row r="32" spans="1:30" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="14"/>
@@ -2751,17 +2985,18 @@
       <c r="V32" s="14"/>
       <c r="W32" s="14"/>
       <c r="X32" s="14"/>
-      <c r="Y32" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z32" s="14"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="14" t="s">
+        <v>71</v>
+      </c>
       <c r="AA32" s="14"/>
       <c r="AB32" s="14"/>
       <c r="AC32" s="14"/>
-    </row>
-    <row r="33" spans="1:29" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD32" s="14"/>
+    </row>
+    <row r="33" spans="1:30" ht="169.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="14"/>
@@ -2786,17 +3021,18 @@
       <c r="V33" s="14"/>
       <c r="W33" s="14"/>
       <c r="X33" s="14"/>
-      <c r="Y33" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z33" s="14"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="AA33" s="14"/>
       <c r="AB33" s="14"/>
       <c r="AC33" s="14"/>
-    </row>
-    <row r="34" spans="1:29" ht="169.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD33" s="14"/>
+    </row>
+    <row r="34" spans="1:30" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="14"/>
@@ -2821,23 +3057,30 @@
       <c r="V34" s="14"/>
       <c r="W34" s="14"/>
       <c r="X34" s="14"/>
-      <c r="Y34" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z34" s="14"/>
+      <c r="Y34" s="14"/>
+      <c r="Z34" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="AA34" s="14"/>
       <c r="AB34" s="14"/>
       <c r="AC34" s="14"/>
-    </row>
-    <row r="35" spans="1:29" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD34" s="14"/>
+    </row>
+    <row r="35" spans="1:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="13"/>
+        <v>76</v>
+      </c>
+      <c r="B35" s="15"/>
+      <c r="C35" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>180</v>
+      </c>
       <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
+      <c r="F35" s="17" t="s">
+        <v>179</v>
+      </c>
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
@@ -2856,101 +3099,134 @@
       <c r="V35" s="14"/>
       <c r="W35" s="14"/>
       <c r="X35" s="14"/>
-      <c r="Y35" s="14" t="s">
-        <v>86</v>
-      </c>
+      <c r="Y35" s="14"/>
       <c r="Z35" s="14"/>
       <c r="AA35" s="14"/>
       <c r="AB35" s="14"/>
       <c r="AC35" s="14"/>
-    </row>
-    <row r="36" spans="1:29" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="14"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="14"/>
-      <c r="V36" s="14"/>
-      <c r="W36" s="14"/>
-      <c r="X36" s="14"/>
-      <c r="Y36" s="14"/>
-      <c r="Z36" s="14"/>
-      <c r="AA36" s="14"/>
-      <c r="AB36" s="14"/>
-      <c r="AC36" s="14"/>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD35" s="14"/>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB38" s="4" t="s">
-        <v>198</v>
+        <v>182</v>
+      </c>
+      <c r="AC37" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" s="24" customFormat="1" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="H38" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="22"/>
+      <c r="U38" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="V38" s="22"/>
+      <c r="W38" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="X38" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y38" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z38" s="22"/>
+      <c r="AA38" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB38" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC38" s="22"/>
+      <c r="AD38" s="22"/>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AB2" r:id="rId1" display="http://www.demosdesoftware.com/videos/3002/workflow/automatizacion-de-procesos-documentales-con-adonis-dms/"/>
-    <hyperlink ref="AB12" r:id="rId2"/>
-    <hyperlink ref="AB13" r:id="rId3"/>
-    <hyperlink ref="AB3" r:id="rId4" display="http://www.demosdesoftware.com/videos/3003/workflow/automatizacion-de-procesos-documentales-con-bonitasoft-y-alfresco/"/>
-    <hyperlink ref="AB14" r:id="rId5"/>
-    <hyperlink ref="AB15" r:id="rId6"/>
-    <hyperlink ref="AB16" r:id="rId7"/>
-    <hyperlink ref="AB17" r:id="rId8"/>
-    <hyperlink ref="AB18" r:id="rId9"/>
-    <hyperlink ref="AB19" r:id="rId10"/>
-    <hyperlink ref="AB20" r:id="rId11"/>
-    <hyperlink ref="AB21" r:id="rId12"/>
-    <hyperlink ref="AB22" r:id="rId13"/>
-    <hyperlink ref="AB23" r:id="rId14"/>
-    <hyperlink ref="AB24" r:id="rId15"/>
-    <hyperlink ref="AB25" r:id="rId16"/>
-    <hyperlink ref="C36" r:id="rId17"/>
-    <hyperlink ref="AB4" r:id="rId18"/>
-    <hyperlink ref="B37" r:id="rId19"/>
-    <hyperlink ref="C37" r:id="rId20"/>
-    <hyperlink ref="B38" r:id="rId21"/>
-    <hyperlink ref="AB38" r:id="rId22"/>
+    <hyperlink ref="AC2" r:id="rId1" display="http://www.demosdesoftware.com/videos/3002/workflow/automatizacion-de-procesos-documentales-con-adonis-dms/"/>
+    <hyperlink ref="AC11" r:id="rId2"/>
+    <hyperlink ref="AC12" r:id="rId3"/>
+    <hyperlink ref="AC3" r:id="rId4" display="http://www.demosdesoftware.com/videos/3003/workflow/automatizacion-de-procesos-documentales-con-bonitasoft-y-alfresco/"/>
+    <hyperlink ref="AC13" r:id="rId5"/>
+    <hyperlink ref="AC14" r:id="rId6"/>
+    <hyperlink ref="AC15" r:id="rId7"/>
+    <hyperlink ref="AC16" r:id="rId8"/>
+    <hyperlink ref="AC17" r:id="rId9"/>
+    <hyperlink ref="AC18" r:id="rId10"/>
+    <hyperlink ref="AC19" r:id="rId11"/>
+    <hyperlink ref="AC20" r:id="rId12"/>
+    <hyperlink ref="AC21" r:id="rId13"/>
+    <hyperlink ref="AC22" r:id="rId14"/>
+    <hyperlink ref="AC23" r:id="rId15"/>
+    <hyperlink ref="AC24" r:id="rId16"/>
+    <hyperlink ref="C35" r:id="rId17"/>
+    <hyperlink ref="AC4" r:id="rId18"/>
+    <hyperlink ref="B36" r:id="rId19"/>
+    <hyperlink ref="C36" r:id="rId20"/>
+    <hyperlink ref="B37" r:id="rId21"/>
+    <hyperlink ref="AC37" r:id="rId22"/>
+    <hyperlink ref="C6" r:id="rId23"/>
+    <hyperlink ref="AC6" r:id="rId24"/>
+    <hyperlink ref="C8" r:id="rId25"/>
+    <hyperlink ref="AC8" r:id="rId26"/>
+    <hyperlink ref="C9" r:id="rId27"/>
+    <hyperlink ref="B9" r:id="rId28"/>
+    <hyperlink ref="AC9" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
 </worksheet>
 </file>
 
@@ -2958,8 +3234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2970,70 +3246,75 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="117.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>

--- a/drafts/bpm/comparativas/COMPARATIVAS.xlsx
+++ b/drafts/bpm/comparativas/COMPARATIVAS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7110"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6195"/>
   </bookViews>
   <sheets>
     <sheet name="COMPARATIVA-SW-BPM" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="247">
   <si>
     <t>ADONIS: CE</t>
   </si>
@@ -111,9 +111,6 @@
     <t>Algunas veces es comple- jo el uso de co- nectores, ya que las co- nexiones solo se pueden hacer hacia la derecha lo que com- plica la conexión de un objeto a otro</t>
   </si>
   <si>
-    <t>Fue creado en 1999 y su última versión fue crea- da en el 2012</t>
-  </si>
-  <si>
     <t>Versión soportada de BPMN</t>
   </si>
   <si>
@@ -144,9 +141,6 @@
     <t>http://www.demosdesoftware.com/videos/3010/workflow/automatizacion-de-procesos-documentales-con-athento/</t>
   </si>
   <si>
-    <t>http://www.demosdesoftware.com/videos/3019/workflow/automatizacion-de-procesos-documentales-con-auraportal-ibpms/</t>
-  </si>
-  <si>
     <t>http://www.demosdesoftware.com/videos/3018/workflow/automatizacion-de-procesos-documentales-con-docuware/</t>
   </si>
   <si>
@@ -292,9 +286,6 @@
   </si>
   <si>
     <t>http://www. sparxsys- tems.es</t>
-  </si>
-  <si>
-    <t>Se requiere un regis- tro en la página previo a la des- carga.</t>
   </si>
   <si>
     <t>http:// intaliodesigner. software. informer. com/</t>
@@ -836,11 +827,123 @@
 - Telcos</t>
   </si>
   <si>
-    <t>https://youtu.be/HXhWpu17N6c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Simulacion de costes y cargas de trabajo, intuitiva y flexible, facilmente parametrizable
-- Inclusion de formularios web sencilla </t>
+    <t>Flokzu modela con BPMN en una interfaz de uso sencillo con el fin de que cualquier usuario pueda
+familiarizarse con la herramienta rápidamente.</t>
+  </si>
+  <si>
+    <t>Flokzu es un software que funciona en la nube, no requiere de ninguna instalación</t>
+  </si>
+  <si>
+    <t>CE
+PAGO</t>
+  </si>
+  <si>
+    <t>- formularios personalizados
+- biblioteca de procesos gratis
+- adjuntar archivos de cualquier tipo
+- notificaciones por correo durante cualquier etapa del proceso
+- métricas y reportes</t>
+  </si>
+  <si>
+    <t>- Acceso y uso como servicio en la nube</t>
+  </si>
+  <si>
+    <t>https://youtu.be/HXhWpu17N6c
+https://www.youtube.com/watch?v=CJPn6SzlRyA</t>
+  </si>
+  <si>
+    <t>- Simulacion de costes y cargas de trabajo, intuitiva y flexible, facilmente parametrizable
+- Inclusion de formularios web sencilla 
+- Parece que todo va en una única herramienta, Modelado, ejecución, kpis, etc</t>
+  </si>
+  <si>
+    <t>- No hay versión comunity que estudiar</t>
+  </si>
+  <si>
+    <t>Serí interesanta una reunión con Oracle para estudiar este producto.</t>
+  </si>
+  <si>
+    <t>https://www.auraportal.com/es</t>
+  </si>
+  <si>
+    <t>everteam.process</t>
+  </si>
+  <si>
+    <t>- Sector gobernamental
+- Sector finaciero
+- Sector telco</t>
+  </si>
+  <si>
+    <t>https://www.everteam.com/en/process-management/process-automation/</t>
+  </si>
+  <si>
+    <t>Fue creado en 1999 y el 30 septiembre de 2015 fue comprado por everteam</t>
+  </si>
+  <si>
+    <t>- SharePoint</t>
+  </si>
+  <si>
+    <t>Gestion de reglas externo al proceso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>- AuraPortal Helium Modeler
+- Motor de orquestación de procesos
+- Reglas de Proceso
+- UGAC (Pasarela Usuario para la Adición de Código)
+- Diseñador de Formularios y Simulación. 
+- Módulos Opcionales (Reglas de Negocio, Tres Entornos Sincronizados (Desarrollo, Pruebas y Producción), Workflow / Extranet y Deep Business Intelligence) que pueden adquirirse por separado para ampliar el alcance
+de la aplicación</t>
+  </si>
+  <si>
+    <t>Nació en el 2002</t>
+  </si>
+  <si>
+    <t>100% web</t>
+  </si>
+  <si>
+    <t>Single sign on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Pago</t>
+  </si>
+  <si>
+    <t>GRATUITO (demo)
+PAGO</t>
+  </si>
+  <si>
+    <t>https://www.everteam.com</t>
+  </si>
+  <si>
+    <t>- Producto completo
+- modelo en la nube que parece bastante innovador
+- Parece sencillo y no se necesita nivel muy tecnico
+- bastante documentacion castellano</t>
+  </si>
+  <si>
+    <t>Se basan en la herramienta intalio, la compraron y la comercializaron.
+Cuesta mucho encontrar videos y documentancion tecnica y comercial con valor sobre el producto, mucho video sobre que los clientes están muy contentos y muy genéricos, sin enseñar nada ni desmarcarse de otros productos.</t>
+  </si>
+  <si>
+    <t>- Procesos de ventas con pasarela de pago
+- Sector gobernamental
+- Sector finaciero
+- Sector telco</t>
+  </si>
+  <si>
+    <t>- Tareas libres para comunicarse entre personas y saltarse la rigidez de un BPM
+- Una única herramienta para todo
+- Interfaz de usuario facilmente personalizable, tipo wordpress</t>
+  </si>
+  <si>
+    <t>https://youtu.be/quVQb995ajQ
+https://www.youtube.com/watch?v=eEJTV9F9Gto
+https://www.youtube.com/watch?v=zUnRgVATjjM
+http://www.demosdesoftware.com/videos/3019/workflow/automatizacion-de-procesos-documentales-con-auraportal-ibpms/</t>
   </si>
 </sst>
 </file>
@@ -1081,7 +1184,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1154,6 +1257,22 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1460,11 +1579,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD39"/>
+  <dimension ref="A1:AF41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W10" sqref="W10"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="AC12" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AE12" sqref="AE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1483,30 +1604,30 @@
     <col min="13" max="13" width="18.140625" customWidth="1"/>
     <col min="14" max="14" width="12.28515625" customWidth="1"/>
     <col min="15" max="15" width="13.28515625" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" customWidth="1"/>
-    <col min="18" max="19" width="14.28515625" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" customWidth="1"/>
-    <col min="21" max="21" width="11.140625" style="5" customWidth="1"/>
-    <col min="22" max="22" width="18.140625" customWidth="1"/>
-    <col min="23" max="23" width="14.140625" style="5" customWidth="1"/>
-    <col min="24" max="24" width="15" style="5" customWidth="1"/>
-    <col min="25" max="25" width="15.7109375" customWidth="1"/>
-    <col min="26" max="26" width="41.28515625" customWidth="1"/>
-    <col min="27" max="27" width="9.140625" style="5"/>
-    <col min="28" max="28" width="10.42578125" customWidth="1"/>
-    <col min="29" max="29" width="15" customWidth="1"/>
+    <col min="16" max="18" width="13.7109375" customWidth="1"/>
+    <col min="19" max="19" width="13.85546875" customWidth="1"/>
+    <col min="20" max="21" width="14.28515625" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" customWidth="1"/>
+    <col min="23" max="23" width="11.140625" style="5" customWidth="1"/>
+    <col min="24" max="24" width="18.140625" customWidth="1"/>
+    <col min="25" max="25" width="14.140625" style="5" customWidth="1"/>
+    <col min="26" max="26" width="15" style="5" customWidth="1"/>
+    <col min="27" max="27" width="15.7109375" customWidth="1"/>
+    <col min="28" max="28" width="41.28515625" customWidth="1"/>
+    <col min="29" max="29" width="9.140625" style="5"/>
+    <col min="30" max="30" width="10.42578125" customWidth="1"/>
+    <col min="31" max="31" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>14</v>
@@ -1515,7 +1636,7 @@
         <v>18</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>16</v>
@@ -1524,73 +1645,79 @@
         <v>19</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="U1" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>174</v>
-      </c>
       <c r="V1" s="6" t="s">
-        <v>209</v>
+        <v>117</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="X1" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="AA1" s="6" t="s">
-        <v>24</v>
+        <v>191</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AC1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD1" s="16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF1" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1598,192 +1725,202 @@
         <v>9</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>17</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L2" s="14"/>
       <c r="M2" s="17" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O2" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="R2" s="14"/>
+      <c r="S2" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="W2" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z2" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA2" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="P2" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q2" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="U2" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="V2" s="17"/>
-      <c r="W2" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="X2" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y2" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z2" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA2" s="14" t="s">
-        <v>25</v>
-      </c>
       <c r="AB2" s="14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AC2" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD2" s="14">
+        <v>24</v>
+      </c>
+      <c r="AD2" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE2" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF2" s="14">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="237" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" ht="237" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D3" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>148</v>
-      </c>
       <c r="I3" s="14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L3" s="14"/>
       <c r="M3" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="T3" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="W3" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z3" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA3" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB3" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="N3" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="R3" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="U3" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="V3" s="14"/>
-      <c r="W3" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="X3" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y3" s="14" t="s">
+      <c r="AC3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD3" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE3" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="Z3" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="AA3" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB3" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC3" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="AD3" s="14">
+      <c r="AF3" s="14">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
@@ -1791,7 +1928,7 @@
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
       <c r="N4" s="14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
@@ -1799,36 +1936,38 @@
       <c r="R4" s="14"/>
       <c r="S4" s="14"/>
       <c r="T4" s="14"/>
-      <c r="U4" s="14" t="s">
-        <v>93</v>
-      </c>
+      <c r="U4" s="14"/>
       <c r="V4" s="14"/>
       <c r="W4" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="X4" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z4" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA4" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="Y4" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z4" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB4" s="14">
+      <c r="AB4" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD4" s="14">
         <v>2.4</v>
       </c>
-      <c r="AC4" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD4" s="14">
+      <c r="AE4" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF4" s="14">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1836,22 +1975,22 @@
         <v>11</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
@@ -1859,7 +1998,7 @@
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
       <c r="N5" s="14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
@@ -1869,104 +2008,108 @@
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
       <c r="V5" s="14"/>
-      <c r="W5" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="X5" s="14" t="s">
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z5" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA5" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB5" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD5" s="14">
+        <v>13.5</v>
+      </c>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="Y5" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z5" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA5" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB5" s="14">
-        <v>13.5</v>
-      </c>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M6" s="14"/>
       <c r="N6" s="14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
-      <c r="Q6" s="14" t="s">
-        <v>93</v>
-      </c>
+      <c r="Q6" s="14"/>
       <c r="R6" s="14"/>
       <c r="S6" s="14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="T6" s="14"/>
       <c r="U6" s="14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="V6" s="14"/>
       <c r="W6" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="X6" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z6" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA6" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB6" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE6" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="Y6" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z6" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="AA6" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB6" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC6" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD6" s="14">
+      <c r="AF6" s="14">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1974,22 +2117,22 @@
         <v>13</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
@@ -1997,7 +2140,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
       <c r="N7" s="14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
@@ -2007,170 +2150,214 @@
       <c r="T7" s="14"/>
       <c r="U7" s="14"/>
       <c r="V7" s="14"/>
-      <c r="W7" s="14" t="s">
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z7" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA7" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB7" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="X7" s="14" t="s">
+      <c r="AC7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" ht="237" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="Y7" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z7" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA7" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB7" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" ht="237" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="B8" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="W8" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="X8" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y8" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z8" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="AC8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD8" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="G8" s="14" t="s">
+      <c r="AE8" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="AF8" s="14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" ht="147" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="P8" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q8" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="R8" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="S8" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="T8" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="U8" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="V8" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="W8" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="X8" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="AC8" s="19" t="s">
+      <c r="B9" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="AD8" s="14">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="17" t="s">
+      <c r="F9" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="G9" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
+      <c r="N9" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>90</v>
+      </c>
       <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
+      <c r="R9" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="W9" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="X9" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y9" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z9" s="17" t="s">
+        <v>225</v>
+      </c>
       <c r="AA9" s="14"/>
       <c r="AB9" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="AC9" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="AD9" s="14"/>
-    </row>
-    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+      <c r="AC9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD9" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE9" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF9" s="14">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="14"/>
@@ -2199,12 +2386,16 @@
       <c r="Z10" s="14"/>
       <c r="AA10" s="14"/>
       <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
+      <c r="AC10" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="AD10" s="14"/>
-    </row>
-    <row r="11" spans="1:30" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+    </row>
+    <row r="11" spans="1:32" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="14"/>
@@ -2234,49 +2425,111 @@
       <c r="AA11" s="14"/>
       <c r="AB11" s="14"/>
       <c r="AC11" s="14" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="AD11" s="14"/>
-    </row>
-    <row r="12" spans="1:30" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE11" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF11" s="14"/>
+    </row>
+    <row r="12" spans="1:32" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="R12" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="S12" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="T12" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="U12" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="V12" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="W12" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="X12" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y12" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB12" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="AC12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF12" s="14">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD12" s="14"/>
-    </row>
-    <row r="13" spans="1:30" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="14"/>
@@ -2306,13 +2559,17 @@
       <c r="AA13" s="14"/>
       <c r="AB13" s="14"/>
       <c r="AC13" s="14" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="AD13" s="14"/>
-    </row>
-    <row r="14" spans="1:30" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF13" s="14"/>
+    </row>
+    <row r="14" spans="1:32" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="14"/>
@@ -2342,13 +2599,17 @@
       <c r="AA14" s="14"/>
       <c r="AB14" s="14"/>
       <c r="AC14" s="14" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="AD14" s="14"/>
-    </row>
-    <row r="15" spans="1:30" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE14" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF14" s="14"/>
+    </row>
+    <row r="15" spans="1:32" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="14"/>
@@ -2378,13 +2639,17 @@
       <c r="AA15" s="14"/>
       <c r="AB15" s="14"/>
       <c r="AC15" s="14" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="AD15" s="14"/>
-    </row>
-    <row r="16" spans="1:30" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE15" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF15" s="14"/>
+    </row>
+    <row r="16" spans="1:32" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="14"/>
@@ -2414,13 +2679,17 @@
       <c r="AA16" s="14"/>
       <c r="AB16" s="14"/>
       <c r="AC16" s="14" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="AD16" s="14"/>
-    </row>
-    <row r="17" spans="1:30" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE16" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF16" s="14"/>
+    </row>
+    <row r="17" spans="1:32" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="14"/>
@@ -2449,14 +2718,16 @@
       <c r="Z17" s="14"/>
       <c r="AA17" s="14"/>
       <c r="AB17" s="14"/>
-      <c r="AC17" s="14" t="s">
-        <v>41</v>
-      </c>
+      <c r="AC17" s="14"/>
       <c r="AD17" s="14"/>
-    </row>
-    <row r="18" spans="1:30" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE17" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF17" s="14"/>
+    </row>
+    <row r="18" spans="1:32" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="14"/>
@@ -2485,14 +2756,16 @@
       <c r="Z18" s="14"/>
       <c r="AA18" s="14"/>
       <c r="AB18" s="14"/>
-      <c r="AC18" s="14" t="s">
-        <v>43</v>
-      </c>
+      <c r="AC18" s="14"/>
       <c r="AD18" s="14"/>
-    </row>
-    <row r="19" spans="1:30" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE18" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF18" s="14"/>
+    </row>
+    <row r="19" spans="1:32" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="14"/>
@@ -2521,14 +2794,16 @@
       <c r="Z19" s="14"/>
       <c r="AA19" s="14"/>
       <c r="AB19" s="14"/>
-      <c r="AC19" s="14" t="s">
-        <v>45</v>
-      </c>
+      <c r="AC19" s="14"/>
       <c r="AD19" s="14"/>
-    </row>
-    <row r="20" spans="1:30" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE19" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF19" s="14"/>
+    </row>
+    <row r="20" spans="1:32" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="14"/>
@@ -2557,14 +2832,16 @@
       <c r="Z20" s="14"/>
       <c r="AA20" s="14"/>
       <c r="AB20" s="14"/>
-      <c r="AC20" s="14" t="s">
-        <v>47</v>
-      </c>
+      <c r="AC20" s="14"/>
       <c r="AD20" s="14"/>
-    </row>
-    <row r="21" spans="1:30" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE20" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF20" s="14"/>
+    </row>
+    <row r="21" spans="1:32" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="14"/>
@@ -2593,14 +2870,16 @@
       <c r="Z21" s="14"/>
       <c r="AA21" s="14"/>
       <c r="AB21" s="14"/>
-      <c r="AC21" s="14" t="s">
-        <v>50</v>
-      </c>
+      <c r="AC21" s="14"/>
       <c r="AD21" s="14"/>
-    </row>
-    <row r="22" spans="1:30" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE21" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF21" s="14"/>
+    </row>
+    <row r="22" spans="1:32" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="14"/>
@@ -2629,14 +2908,16 @@
       <c r="Z22" s="14"/>
       <c r="AA22" s="14"/>
       <c r="AB22" s="14"/>
-      <c r="AC22" s="14" t="s">
-        <v>51</v>
-      </c>
+      <c r="AC22" s="14"/>
       <c r="AD22" s="14"/>
-    </row>
-    <row r="23" spans="1:30" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE22" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF22" s="14"/>
+    </row>
+    <row r="23" spans="1:32" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="14"/>
@@ -2665,14 +2946,16 @@
       <c r="Z23" s="14"/>
       <c r="AA23" s="14"/>
       <c r="AB23" s="14"/>
-      <c r="AC23" s="14" t="s">
-        <v>54</v>
-      </c>
+      <c r="AC23" s="14"/>
       <c r="AD23" s="14"/>
-    </row>
-    <row r="24" spans="1:30" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE23" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF23" s="14"/>
+    </row>
+    <row r="24" spans="1:32" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="14"/>
@@ -2701,14 +2984,16 @@
       <c r="Z24" s="14"/>
       <c r="AA24" s="14"/>
       <c r="AB24" s="14"/>
-      <c r="AC24" s="14" t="s">
-        <v>55</v>
-      </c>
+      <c r="AC24" s="14"/>
       <c r="AD24" s="14"/>
-    </row>
-    <row r="25" spans="1:30" ht="282" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE24" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF24" s="14"/>
+    </row>
+    <row r="25" spans="1:32" ht="282" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="14"/>
@@ -2734,17 +3019,19 @@
       <c r="W25" s="14"/>
       <c r="X25" s="14"/>
       <c r="Y25" s="14"/>
-      <c r="Z25" s="14" t="s">
-        <v>57</v>
-      </c>
+      <c r="Z25" s="14"/>
       <c r="AA25" s="14"/>
-      <c r="AB25" s="14"/>
+      <c r="AB25" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="AC25" s="14"/>
       <c r="AD25" s="14"/>
-    </row>
-    <row r="26" spans="1:30" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="14"/>
+    </row>
+    <row r="26" spans="1:32" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="14"/>
@@ -2770,17 +3057,19 @@
       <c r="W26" s="14"/>
       <c r="X26" s="14"/>
       <c r="Y26" s="14"/>
-      <c r="Z26" s="14" t="s">
-        <v>59</v>
-      </c>
+      <c r="Z26" s="14"/>
       <c r="AA26" s="14"/>
-      <c r="AB26" s="14"/>
+      <c r="AB26" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="AC26" s="14"/>
       <c r="AD26" s="14"/>
-    </row>
-    <row r="27" spans="1:30" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="14"/>
+    </row>
+    <row r="27" spans="1:32" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="14"/>
@@ -2806,17 +3095,19 @@
       <c r="W27" s="14"/>
       <c r="X27" s="14"/>
       <c r="Y27" s="14"/>
-      <c r="Z27" s="14" t="s">
-        <v>61</v>
-      </c>
+      <c r="Z27" s="14"/>
       <c r="AA27" s="14"/>
-      <c r="AB27" s="14"/>
+      <c r="AB27" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="AC27" s="14"/>
       <c r="AD27" s="14"/>
-    </row>
-    <row r="28" spans="1:30" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE27" s="14"/>
+      <c r="AF27" s="14"/>
+    </row>
+    <row r="28" spans="1:32" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="14"/>
@@ -2842,17 +3133,19 @@
       <c r="W28" s="14"/>
       <c r="X28" s="14"/>
       <c r="Y28" s="14"/>
-      <c r="Z28" s="14" t="s">
-        <v>63</v>
-      </c>
+      <c r="Z28" s="14"/>
       <c r="AA28" s="14"/>
-      <c r="AB28" s="14"/>
+      <c r="AB28" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="AC28" s="14"/>
       <c r="AD28" s="14"/>
-    </row>
-    <row r="29" spans="1:30" ht="282" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="14"/>
+    </row>
+    <row r="29" spans="1:32" ht="282" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="14"/>
@@ -2878,17 +3171,19 @@
       <c r="W29" s="14"/>
       <c r="X29" s="14"/>
       <c r="Y29" s="14"/>
-      <c r="Z29" s="14" t="s">
-        <v>65</v>
-      </c>
+      <c r="Z29" s="14"/>
       <c r="AA29" s="14"/>
-      <c r="AB29" s="14"/>
+      <c r="AB29" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="AC29" s="14"/>
       <c r="AD29" s="14"/>
-    </row>
-    <row r="30" spans="1:30" ht="203.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE29" s="14"/>
+      <c r="AF29" s="14"/>
+    </row>
+    <row r="30" spans="1:32" ht="203.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="14"/>
@@ -2914,17 +3209,19 @@
       <c r="W30" s="14"/>
       <c r="X30" s="14"/>
       <c r="Y30" s="14"/>
-      <c r="Z30" s="14" t="s">
-        <v>67</v>
-      </c>
+      <c r="Z30" s="14"/>
       <c r="AA30" s="14"/>
-      <c r="AB30" s="14"/>
+      <c r="AB30" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="AC30" s="14"/>
       <c r="AD30" s="14"/>
-    </row>
-    <row r="31" spans="1:30" ht="147" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE30" s="14"/>
+      <c r="AF30" s="14"/>
+    </row>
+    <row r="31" spans="1:32" ht="147" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="14"/>
@@ -2950,17 +3247,19 @@
       <c r="W31" s="14"/>
       <c r="X31" s="14"/>
       <c r="Y31" s="14"/>
-      <c r="Z31" s="14" t="s">
-        <v>69</v>
-      </c>
+      <c r="Z31" s="14"/>
       <c r="AA31" s="14"/>
-      <c r="AB31" s="14"/>
+      <c r="AB31" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="AC31" s="14"/>
       <c r="AD31" s="14"/>
-    </row>
-    <row r="32" spans="1:30" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE31" s="14"/>
+      <c r="AF31" s="14"/>
+    </row>
+    <row r="32" spans="1:32" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="14"/>
@@ -2986,17 +3285,19 @@
       <c r="W32" s="14"/>
       <c r="X32" s="14"/>
       <c r="Y32" s="14"/>
-      <c r="Z32" s="14" t="s">
-        <v>71</v>
-      </c>
+      <c r="Z32" s="14"/>
       <c r="AA32" s="14"/>
-      <c r="AB32" s="14"/>
+      <c r="AB32" s="14" t="s">
+        <v>69</v>
+      </c>
       <c r="AC32" s="14"/>
       <c r="AD32" s="14"/>
-    </row>
-    <row r="33" spans="1:30" ht="169.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="14"/>
+    </row>
+    <row r="33" spans="1:32" ht="169.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="14"/>
@@ -3022,17 +3323,19 @@
       <c r="W33" s="14"/>
       <c r="X33" s="14"/>
       <c r="Y33" s="14"/>
-      <c r="Z33" s="14" t="s">
-        <v>73</v>
-      </c>
+      <c r="Z33" s="14"/>
       <c r="AA33" s="14"/>
-      <c r="AB33" s="14"/>
+      <c r="AB33" s="14" t="s">
+        <v>71</v>
+      </c>
       <c r="AC33" s="14"/>
       <c r="AD33" s="14"/>
-    </row>
-    <row r="34" spans="1:30" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE33" s="14"/>
+      <c r="AF33" s="14"/>
+    </row>
+    <row r="34" spans="1:32" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="14"/>
@@ -3058,28 +3361,30 @@
       <c r="W34" s="14"/>
       <c r="X34" s="14"/>
       <c r="Y34" s="14"/>
-      <c r="Z34" s="14" t="s">
-        <v>75</v>
-      </c>
+      <c r="Z34" s="14"/>
       <c r="AA34" s="14"/>
-      <c r="AB34" s="14"/>
+      <c r="AB34" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="AC34" s="14"/>
       <c r="AD34" s="14"/>
-    </row>
-    <row r="35" spans="1:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE34" s="14"/>
+      <c r="AF34" s="14"/>
+    </row>
+    <row r="35" spans="1:32" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B35" s="15"/>
       <c r="C35" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="17" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
@@ -3105,51 +3410,59 @@
       <c r="AB35" s="14"/>
       <c r="AC35" s="14"/>
       <c r="AD35" s="14"/>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE35" s="14"/>
+      <c r="AF35" s="14"/>
+    </row>
+    <row r="36" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+      <c r="AC36" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="AC37" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="38" spans="1:30" s="24" customFormat="1" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+      <c r="AC37" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE37" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" s="24" customFormat="1" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D38" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="22" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I38" s="22"/>
       <c r="J38" s="22"/>
@@ -3157,7 +3470,7 @@
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O38" s="22"/>
       <c r="P38" s="22"/>
@@ -3165,68 +3478,194 @@
       <c r="R38" s="22"/>
       <c r="S38" s="22"/>
       <c r="T38" s="22"/>
-      <c r="U38" s="22" t="s">
-        <v>93</v>
-      </c>
+      <c r="U38" s="22"/>
       <c r="V38" s="22"/>
       <c r="W38" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="X38" s="22"/>
+      <c r="Y38" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="X38" s="22" t="s">
+      <c r="Z38" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="Y38" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z38" s="22"/>
       <c r="AA38" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB38" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB38" s="22"/>
+      <c r="AC38" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD38" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AC38" s="22"/>
-      <c r="AD38" s="22"/>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>202</v>
+      <c r="AE38" s="22"/>
+      <c r="AF38" s="22">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" s="24" customFormat="1" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="F39" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="G39" s="32"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="M39" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="N39" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="O39" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="P39" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="S39" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="T39" s="31"/>
+      <c r="U39" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="V39" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="W39" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="X39" s="31"/>
+      <c r="Y39" s="31"/>
+      <c r="Z39" s="31"/>
+      <c r="AA39" s="31"/>
+      <c r="AB39" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC39" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD39" s="31"/>
+      <c r="AE39" s="33"/>
+      <c r="AF39" s="31">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="G40" t="s">
+        <v>219</v>
+      </c>
+      <c r="K40" t="s">
+        <v>90</v>
+      </c>
+      <c r="P40" t="s">
+        <v>90</v>
+      </c>
+      <c r="S40" t="s">
+        <v>90</v>
+      </c>
+      <c r="U40" t="s">
+        <v>90</v>
+      </c>
+      <c r="V40" t="s">
+        <v>90</v>
+      </c>
+      <c r="W40" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="X40" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y40" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB40" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC40" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC41" s="14" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AC2" r:id="rId1" display="http://www.demosdesoftware.com/videos/3002/workflow/automatizacion-de-procesos-documentales-con-adonis-dms/"/>
-    <hyperlink ref="AC11" r:id="rId2"/>
-    <hyperlink ref="AC12" r:id="rId3"/>
-    <hyperlink ref="AC3" r:id="rId4" display="http://www.demosdesoftware.com/videos/3003/workflow/automatizacion-de-procesos-documentales-con-bonitasoft-y-alfresco/"/>
-    <hyperlink ref="AC13" r:id="rId5"/>
-    <hyperlink ref="AC14" r:id="rId6"/>
-    <hyperlink ref="AC15" r:id="rId7"/>
-    <hyperlink ref="AC16" r:id="rId8"/>
-    <hyperlink ref="AC17" r:id="rId9"/>
-    <hyperlink ref="AC18" r:id="rId10"/>
-    <hyperlink ref="AC19" r:id="rId11"/>
-    <hyperlink ref="AC20" r:id="rId12"/>
-    <hyperlink ref="AC21" r:id="rId13"/>
-    <hyperlink ref="AC22" r:id="rId14"/>
-    <hyperlink ref="AC23" r:id="rId15"/>
-    <hyperlink ref="AC24" r:id="rId16"/>
+    <hyperlink ref="AE2" r:id="rId1" display="http://www.demosdesoftware.com/videos/3002/workflow/automatizacion-de-procesos-documentales-con-adonis-dms/"/>
+    <hyperlink ref="AE11" r:id="rId2"/>
+    <hyperlink ref="AE12" r:id="rId3" display="http://www.demosdesoftware.com/videos/3019/workflow/automatizacion-de-procesos-documentales-con-auraportal-ibpms/"/>
+    <hyperlink ref="AE3" r:id="rId4" display="http://www.demosdesoftware.com/videos/3003/workflow/automatizacion-de-procesos-documentales-con-bonitasoft-y-alfresco/"/>
+    <hyperlink ref="AE13" r:id="rId5"/>
+    <hyperlink ref="AE14" r:id="rId6"/>
+    <hyperlink ref="AE15" r:id="rId7"/>
+    <hyperlink ref="AE16" r:id="rId8"/>
+    <hyperlink ref="AE17" r:id="rId9"/>
+    <hyperlink ref="AE18" r:id="rId10"/>
+    <hyperlink ref="AE19" r:id="rId11"/>
+    <hyperlink ref="AE20" r:id="rId12"/>
+    <hyperlink ref="AE21" r:id="rId13"/>
+    <hyperlink ref="AE22" r:id="rId14"/>
+    <hyperlink ref="AE23" r:id="rId15"/>
+    <hyperlink ref="AE24" r:id="rId16"/>
     <hyperlink ref="C35" r:id="rId17"/>
-    <hyperlink ref="AC4" r:id="rId18"/>
+    <hyperlink ref="AE4" r:id="rId18"/>
     <hyperlink ref="B36" r:id="rId19"/>
     <hyperlink ref="C36" r:id="rId20"/>
     <hyperlink ref="B37" r:id="rId21"/>
-    <hyperlink ref="AC37" r:id="rId22"/>
+    <hyperlink ref="AE37" r:id="rId22"/>
     <hyperlink ref="C6" r:id="rId23"/>
-    <hyperlink ref="AC6" r:id="rId24"/>
+    <hyperlink ref="AE6" r:id="rId24"/>
     <hyperlink ref="C8" r:id="rId25"/>
-    <hyperlink ref="AC8" r:id="rId26"/>
+    <hyperlink ref="AE8" r:id="rId26"/>
     <hyperlink ref="C9" r:id="rId27"/>
     <hyperlink ref="B9" r:id="rId28"/>
-    <hyperlink ref="AC9" r:id="rId29"/>
+    <hyperlink ref="AE9" r:id="rId29" display="https://youtu.be/HXhWpu17N6c"/>
+    <hyperlink ref="B12" r:id="rId30"/>
+    <hyperlink ref="C12" r:id="rId31"/>
+    <hyperlink ref="C39" r:id="rId32"/>
+    <hyperlink ref="B39" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>
 
@@ -3246,74 +3685,74 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="117.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">

--- a/drafts/bpm/comparativas/COMPARATIVAS.xlsx
+++ b/drafts/bpm/comparativas/COMPARATIVAS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="262">
   <si>
     <t>ADONIS: CE</t>
   </si>
@@ -944,6 +944,66 @@
 https://www.youtube.com/watch?v=eEJTV9F9Gto
 https://www.youtube.com/watch?v=zUnRgVATjjM
 http://www.demosdesoftware.com/videos/3019/workflow/automatizacion-de-procesos-documentales-con-auraportal-ibpms/</t>
+  </si>
+  <si>
+    <t>camunda</t>
+  </si>
+  <si>
+    <t>https://camunda.com/products/</t>
+  </si>
+  <si>
+    <t>- orquestación de servicios (micro) y la gestión de tareas humanas</t>
+  </si>
+  <si>
+    <t>7.8</t>
+  </si>
+  <si>
+    <t>- Se necesitan altos conocimientos tecnicos</t>
+  </si>
+  <si>
+    <t>- Docker
+- Camunda como parte de Apache Tomcat 8
+- Necesita jdk se basa en java</t>
+  </si>
+  <si>
+    <t>CMMN</t>
+  </si>
+  <si>
+    <t>Case Management Model and Notation ( CMMN ) es una representación gráfica para expresar gráficamente un caso, así como un formato de intercambio para intercambiar modelos de Case entre diferentes herramientas. La especificación del modelo de proceso empresarial y la notación (BPMN) de OMG es para los productos de gestión de procesos empresariales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://camunda.com/learn/videos/
+</t>
+  </si>
+  <si>
+    <t>TODOS</t>
+  </si>
+  <si>
+    <t>Camunda BPM es desarrollado por Camunda como un proyecto de código abierto en colaboración con la comunidad. El "proyecto central" (a saber, "Plataforma BPM de Camunda") es la base del producto Camunda BPM que ofrece Camunda como oferta comercial. El producto comercial Camunda BPM contiene funciones adicionales (de fuente no abierta) y se proporciona a los clientes de Camunda BPM con ofertas de servicios como soporte empresarial y versiones de corrección de fallas .
+Camunda es una plataforma de código abierto para el flujo de trabajo y la gestión de procesos comerciales. 
+Puede modelar y ejecutar BPMN 2.0, CMMN 1.1 y DMN 1.1.</t>
+  </si>
+  <si>
+    <t>- Soluciones muy a medida.
+- se puede programar apoyandose en motor de proceso con api java y con api rest muy completo
+- se apoya en java
+- Camunda Cockpit, es la herramienta de gestión de instancias de Camunda BPM. Una invaluable inclusión en la plataforma. Permite ver las variables de un proceso y modificarlas, revisar en cual etapa de ejecución se encuentra una instancia, y, por si fuera poco, permite mover la ejecución a una tarea cualquiera, iniciar una instancia en una tarea específica e incluso migrar las instancias actuales hacia una versión más actualizada del mismo proceso.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - camunda-modeler
+- Camunda Workflow Engine (Motor de procesos)
+- Camunda Tasklist (Interfaz lista tareas)
+- auditoria KPIS
+- Camunda Cockpit (Gestion de instancias)
+- Camunda Admin (Gestion organizacion)</t>
+  </si>
+  <si>
+    <t>- motor de microservicios
+- solucion de motor a medida, es opensource</t>
+  </si>
+  <si>
+    <t>Orientado a microservicios, muy tecnico y orientado a desarrolladores java
+Tiene pinta de llevar poco tiempo en el mercado, pero con una comunidad muy potente promete a futuro.</t>
   </si>
 </sst>
 </file>
@@ -1184,7 +1244,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1274,6 +1334,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1582,10 +1646,10 @@
   <dimension ref="A1:AF41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="AC12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="I39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AE12" sqref="AE12"/>
+      <selection pane="bottomRight" activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2060,7 +2124,9 @@
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
+      <c r="K6" s="14" t="s">
+        <v>90</v>
+      </c>
       <c r="L6" s="14" t="s">
         <v>90</v>
       </c>
@@ -3589,6 +3655,9 @@
       <c r="E40" s="28" t="s">
         <v>221</v>
       </c>
+      <c r="F40" s="29" t="s">
+        <v>249</v>
+      </c>
       <c r="G40" t="s">
         <v>219</v>
       </c>
@@ -3623,9 +3692,81 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:32" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="F41" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="I41" t="s">
+        <v>256</v>
+      </c>
+      <c r="J41" t="s">
+        <v>90</v>
+      </c>
+      <c r="K41" t="s">
+        <v>90</v>
+      </c>
+      <c r="N41" t="s">
+        <v>90</v>
+      </c>
+      <c r="O41" t="s">
+        <v>90</v>
+      </c>
+      <c r="P41" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>90</v>
+      </c>
+      <c r="R41" t="s">
+        <v>90</v>
+      </c>
+      <c r="W41" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="X41" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y41" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z41" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA41" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="AB41" s="12" t="s">
+        <v>261</v>
+      </c>
       <c r="AC41" s="14" t="s">
         <v>24</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE41" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="AF41">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3663,9 +3804,12 @@
     <hyperlink ref="C12" r:id="rId31"/>
     <hyperlink ref="C39" r:id="rId32"/>
     <hyperlink ref="B39" r:id="rId33"/>
+    <hyperlink ref="B41" r:id="rId34"/>
+    <hyperlink ref="C41" r:id="rId35"/>
+    <hyperlink ref="AE41" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>
 
@@ -3674,7 +3818,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3755,8 +3899,13 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
+    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>

--- a/drafts/bpm/comparativas/COMPARATIVAS.xlsx
+++ b/drafts/bpm/comparativas/COMPARATIVAS.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6195"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6195" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="COMPARATIVA-SW-BPM" sheetId="2" r:id="rId1"/>
+    <sheet name="COMPARATIVA-SW-MOTORES-BPM" sheetId="2" r:id="rId1"/>
     <sheet name="GLOSARIO" sheetId="3" r:id="rId2"/>
+    <sheet name="COMPARATIVA-SW-MODELADO-BPM" sheetId="4" r:id="rId3"/>
+    <sheet name="COMPARATIVA-SW-GESTOR-PROC-DOC-" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="290">
   <si>
     <t>ADONIS: CE</t>
   </si>
@@ -117,9 +119,6 @@
     <t>BPMN 2.0</t>
   </si>
   <si>
-    <t>BizTalk</t>
-  </si>
-  <si>
     <t>Athento</t>
   </si>
   <si>
@@ -138,9 +137,6 @@
     <t>Demo</t>
   </si>
   <si>
-    <t>http://www.demosdesoftware.com/videos/3010/workflow/automatizacion-de-procesos-documentales-con-athento/</t>
-  </si>
-  <si>
     <t>http://www.demosdesoftware.com/videos/3018/workflow/automatizacion-de-procesos-documentales-con-docuware/</t>
   </si>
   <si>
@@ -168,12 +164,6 @@
     <t>http://www.demosdesoftware.com/videos/3008/workflow/procesos-documentales-con-laserfiche/</t>
   </si>
   <si>
-    <t>Liferay</t>
-  </si>
-  <si>
-    <t>http://www.demosdesoftware.com/videos/3001/workflow/automatizacion-de-procesos-documentales-con-liferay/</t>
-  </si>
-  <si>
     <t>mProductos</t>
   </si>
   <si>
@@ -186,9 +176,6 @@
     <t>proquo</t>
   </si>
   <si>
-    <t>http://www.demosdesoftware.com/videos/3012/workflow/automatizacion-de-procesos-documentales-con-onbase/</t>
-  </si>
-  <si>
     <t>http://www.demosdesoftware.com/videos/3017/workflow/automatizacion-de-procesos-documentales-con-proquo/</t>
   </si>
   <si>
@@ -198,9 +185,6 @@
     <t>Ricoh</t>
   </si>
   <si>
-    <t>http://www.demosdesoftware.com/videos/3013/workflow/procesos-documentales-con-r2-docuo/</t>
-  </si>
-  <si>
     <t>http://www.demosdesoftware.com/videos/3016/workflow/automatizacion-de-procesos-documentales-con-ricoh/</t>
   </si>
   <si>
@@ -214,18 +198,6 @@
   </si>
   <si>
     <t>Appian tiene un enfoque estratégico en la provisión de una plataforma de bajo código para crear rápidamente aplicaciones de negocios críticas, seguras y de misión crítica. Como Líder tanto en DPA de Forrester como en Forrester Waves de bajo código, está bien posicionada para ayudar a los clientes en aplicaciones de procesos complejos a la vez que admite la automatización eficiente de una amplia gama de procesos necesarios para impulsar una verdadera transformación digital. Appian cubre la mayoría de los requisitos tradicionales de BPM con una combinación de capacidades nativas, incluida su oferta de administración de decisiones comerciales recientemente presentada. Las ofertas de socio preintegradas amplían aún más las características de Appian. Todo esto, combinado con un compromiso temprano de bajo código para el desarrollo rápido de aplicaciones, significa que Appian está bien posicionado para llevar a los clientes a lo más profundo de DPA. Appian tiene referencias positivas de los clientes, particularmente con respecto a la velocidad y la agilidad del desarrollo.</t>
-  </si>
-  <si>
-    <t>Software AG</t>
-  </si>
-  <si>
-    <t>Un jugador veterano en el espacio BPM tradicional, con su webMethods BPMS, Software AG ofrece un sólido soporte para la gestión dinámica de casos, RPA integrado, soporte extenso de documentos y modelado de procesos. Con la incorporación e integración de webMethods AgileApps para el desarrollo rápido y de código bajo, Software AG ahora tiene una cartera que puede ayudar a una organización a expandirse en las implementaciones de DPA. Con la adquisición de Zementis el año pasado, Software AG ahora puede ampliar sus ya significativas capacidades de análisis con un verdadero marco de inteligencia artificial. También ha invertido mucho y ha encontrado tracción en el mercado con su soporte para procesos impulsados ​​por IoT. Los clientes han expresado un gran interés en la última versión, que evaluamos para esta Forrester Wave,</t>
-  </si>
-  <si>
-    <t>Newgen Software</t>
-  </si>
-  <si>
-    <t>Alguna vez proveedor de contenido / centrado en documentos, Newgen ha evolucionado hacia un proveedor completo de soluciones de automatización de procesos. Con esa base en su lugar, Newgen ha invertido en un entorno de bajo código para cumplir con la próxima generación de necesidades de proceso. Hace hincapié en CX: para ello, ofrece un soporte móvil muy fuerte y está invirtiendo activamente en nuevos modelos de interacción del usuario, como voz y chat. La oferta de Newgen es sólida en todos los ámbitos, tanto para procesos complejos y profundos como, cada vez más, para un amplio despliegue de aplicaciones. Mientras que los clientes fueron positivos en la relación con Newgen, uno informó una preocupación inicial sobre la capacidad de respuesta del equipo que Newgen asignó para apoyar el desarrollo de procesos personalizados.</t>
   </si>
   <si>
     <t>Nintex</t>
@@ -818,9 +790,6 @@
     <t>http://www.oracle.com/us/technologies/bpm/overview/index.html</t>
   </si>
   <si>
-    <t>http://www.oracle.com</t>
-  </si>
-  <si>
     <t>- Motor de procesos
 - orquestacion e integracion de sistemas
 - orquestacion de tareas dentro de una organización
@@ -864,9 +833,6 @@
   </si>
   <si>
     <t>https://www.auraportal.com/es</t>
-  </si>
-  <si>
-    <t>everteam.process</t>
   </si>
   <si>
     <t>- Sector gobernamental
@@ -1004,6 +970,154 @@
   <si>
     <t>Orientado a microservicios, muy tecnico y orientado a desarrolladores java
 Tiene pinta de llevar poco tiempo en el mercado, pero con una comunidad muy potente promete a futuro.</t>
+  </si>
+  <si>
+    <t>everteam process</t>
+  </si>
+  <si>
+    <t>MICROSOFT</t>
+  </si>
+  <si>
+    <t>ORACLE</t>
+  </si>
+  <si>
+    <t>BizTalk Server
+Microsoft azure</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/es-es/biztalk/core/getting-started-with-biztalk-server</t>
+  </si>
+  <si>
+    <t>- Hospitales
+- conexión de sistemas locales
+- bancos
+- procesos empresariales</t>
+  </si>
+  <si>
+    <t>BizTalk Server 2016</t>
+  </si>
+  <si>
+    <t>- Muy dificil encontrar información especifica del producto. 
+- Hermetismo de microsoft por mostrar el producto.
+- cerrado a uso de productos microsoft .net</t>
+  </si>
+  <si>
+    <t>https://youtu.be/SDVT6PWXC_k
+https://channel9.msdn.com/Blogs/Microsoft-Integration/Salesforce-Outbound-Message-Notification-Trigger-in-Logic-Apps</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Azure Logic Apps (integracion servicios SASS nube)
+- Azure API Management (Publicar API)
+- Mensajeria y notificaciones
+- motor de reglas
+- Azure Services Bus (ESB)
+- Interfaz de usuario</t>
+  </si>
+  <si>
+    <t>Poructo completo</t>
+  </si>
+  <si>
+    <t>Basado en sistemas Microsoft</t>
+  </si>
+  <si>
+    <t>BizTalk Serveres un publicar y suscribirse arquitectura que utiliza adaptadores enviar y recibir mensajes, implementa procesos empresariales a través de orquestacióne incluye administración y seguimiento de estas partes diferentes. BizTalk Server También incluye administración de socios comerciales para la mensajería negocio a negocio, alta disponibilidad para maximizar el tiempo de actividad, una plataforma de desarrollo para crear sus propios componentes, una consola de administración para administrar los artefactos dey para administrar la supervisión de la actividad económica agregaciones, alertas y perfiles.</t>
+  </si>
+  <si>
+    <t>http://www.athento.com/es/caracteristicas-tecnicas/</t>
+  </si>
+  <si>
+    <t>PAGO
+http://www.athento.com/es/precios-y-planes/</t>
+  </si>
+  <si>
+    <t>- Athento ECM (Gestión Documental)
+- Athento Smart Engine (Captura de Documentos)</t>
+  </si>
+  <si>
+    <t>- Solucion SASS, almacenamiento de documentos y gestion de procesos documentales.
+- Migracion de soporte en papel a soporte electrónico
+- Gestion documental en procesos empresariales</t>
+  </si>
+  <si>
+    <t>-  Servicio SASS en la nube, para usar según las necesidades de la empresa
+- Instalacion de servidor local, para negocios con gran demanda privada de gestion de documentos.</t>
+  </si>
+  <si>
+    <t>http://www.demosdesoftware.com/videos/3010/workflow/automatizacion-de-procesos-documentales-con-athento/
+https://youtu.be/WNSxYlY_ggI</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>- Excel
+-CSV</t>
+  </si>
+  <si>
+    <t>Versionado de documentos</t>
+  </si>
+  <si>
+    <t>- La captura de datos se basa en procesos de reconocimiento de imágenes. Muy util para migrar documentos a formato electronico y poder explotar sus datos.
+- clasificación de documentos inteligente, revisión</t>
+  </si>
+  <si>
+    <t>No es un BPMN como tal es más bien, una plataforma de Gestión Documental con una suite de productos de Enterprise Content Management y Captura de Documentos.
+Muy útil para digitalizar, explotar datos y clasificar documentos en papel. Se podría decir que gestiona procesos de captura, digitalización, modificacion, revisión, clasificación de documentos, explotación de datos y repositorio de documentos.</t>
+  </si>
+  <si>
+    <t>Una plataforma tecnológica de información empresarial para la gestión de documentos, procesos y datos</t>
+  </si>
+  <si>
+    <t>https://www.onbase.com</t>
+  </si>
+  <si>
+    <t>http://www.demosdesoftware.com/videos/3012/workflow/automatizacion-de-procesos-documentales-con-onbase/
+https://www.onbase.com/es-MX/forms/onbase-software-demo/confirmation?utm_source=Autoresponder&amp;utm_medium=Email&amp;utm_campaign=product.onbase-primary-4.demo</t>
+  </si>
+  <si>
+    <t>- Procesos de compras ventas
+- gestion de facturas
+- Procesos administativos  orientados a documentos</t>
+  </si>
+  <si>
+    <t>hyland</t>
+  </si>
+  <si>
+    <t>Onbase 17</t>
+  </si>
+  <si>
+    <t>https://www.proquo.pro/</t>
+  </si>
+  <si>
+    <t>- Integracion Microsoft. Sharepoint</t>
+  </si>
+  <si>
+    <t>Poca informacion de la solucion</t>
+  </si>
+  <si>
+    <t>- Gestion documental en la nube</t>
+  </si>
+  <si>
+    <t>- Portal web
+- Interfaz de escritorio</t>
+  </si>
+  <si>
+    <t>https://www.r2docuo.com/es</t>
+  </si>
+  <si>
+    <t>https://youtu.be/phihuf2aixk?list=PLwsrvQ16WNJo8bhFP0H9oK3k_8g1lajbj
+http://www.demosdesoftware.com/videos/3013/workflow/procesos-documentales-con-r2-docuo/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Repositorio de documentos en la nube</t>
+  </si>
+  <si>
+    <t>Orientado a documentos</t>
+  </si>
+  <si>
+    <t>- Servicio de nube, se cobra por uso
+- Producto Español para uso en Europa, con leyes españolas y europeas
+- Firma electronica avanzada</t>
   </si>
 </sst>
 </file>
@@ -1244,7 +1358,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1291,9 +1405,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1306,9 +1417,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1319,10 +1427,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1335,9 +1439,11 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1643,18 +1749,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF41"/>
+  <dimension ref="A1:AF12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="I39" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J40" sqref="J40"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="5"/>
     <col min="5" max="5" width="19" style="5" customWidth="1"/>
@@ -1685,13 +1792,13 @@
   <sheetData>
     <row r="1" spans="1:32" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>14</v>
@@ -1700,7 +1807,7 @@
         <v>18</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>16</v>
@@ -1709,76 +1816,76 @@
         <v>19</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="X1" s="6" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="Y1" s="6" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="Z1" s="6" t="s">
         <v>21</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="AC1" s="6" t="s">
         <v>23</v>
       </c>
       <c r="AD1" s="6" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="AE1" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AF1" s="16" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1789,81 +1896,81 @@
         <v>9</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>142</v>
+        <v>67</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>132</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>17</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="L2" s="14"/>
       <c r="M2" s="17" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="Q2" s="14" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="R2" s="14"/>
       <c r="S2" s="17" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="T2" s="17"/>
       <c r="U2" s="17"/>
       <c r="V2" s="17" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="W2" s="14" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="X2" s="17"/>
       <c r="Y2" s="14" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="Z2" s="14" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="AA2" s="14" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="AB2" s="14" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="AC2" s="14" t="s">
         <v>24</v>
       </c>
       <c r="AD2" s="14" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="AE2" s="14" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="AF2" s="14">
         <v>50</v>
@@ -1871,120 +1978,1280 @@
     </row>
     <row r="3" spans="1:32" ht="237" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>142</v>
+        <v>69</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>132</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="L3" s="14"/>
       <c r="M3" s="14" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Q3" s="14" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="R3" s="14" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="S3" s="14" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="T3" s="14" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="U3" s="14"/>
       <c r="V3" s="14" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="W3" s="14" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="X3" s="14"/>
       <c r="Y3" s="17" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="Z3" s="17" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="AA3" s="14" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="AB3" s="17" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="AC3" s="14" t="s">
         <v>24</v>
       </c>
       <c r="AD3" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE3" s="19" t="s">
-        <v>152</v>
+        <v>134</v>
+      </c>
+      <c r="AE3" s="18" t="s">
+        <v>142</v>
       </c>
       <c r="AF3" s="14">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" s="22" customFormat="1" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z4" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA4" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB4" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC4" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD4" s="21">
+        <v>2.4</v>
+      </c>
+      <c r="AE4" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF4" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="248.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="U5" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="V5" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="W5" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z5" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD5" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE5" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF5" s="14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" ht="169.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="T6" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="U6" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="V6" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="W6" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="X6" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y6" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z6" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD6" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="AE6" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="AF6" s="14">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="U7" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="V7" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="W7" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="X7" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y7" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z7" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="AC7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD7" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="AE7" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="AF7" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" ht="237" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="W8" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="X8" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y8" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB8" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="AF8" s="14">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" s="22" customFormat="1" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z9" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA9" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD9" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" s="22" customFormat="1" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="G10" s="28"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="M10" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="N10" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="O10" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="P10" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="S10" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="V10" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="W10" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="AC10" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="29"/>
+      <c r="AF10" s="27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="V11" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="W11" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="X11" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y11" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="14"/>
+    </row>
+    <row r="12" spans="1:32" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="R12" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="X12" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y12" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="Z12" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="AA12" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="AB12" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="AC12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD12" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="AE12" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF12" s="14">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AE2" r:id="rId1" display="http://www.demosdesoftware.com/videos/3002/workflow/automatizacion-de-procesos-documentales-con-adonis-dms/"/>
+    <hyperlink ref="AE8" r:id="rId2" display="http://www.demosdesoftware.com/videos/3019/workflow/automatizacion-de-procesos-documentales-con-auraportal-ibpms/"/>
+    <hyperlink ref="AE3" r:id="rId3" display="http://www.demosdesoftware.com/videos/3003/workflow/automatizacion-de-procesos-documentales-con-bonitasoft-y-alfresco/"/>
+    <hyperlink ref="AE4" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId5"/>
+    <hyperlink ref="AE5" r:id="rId6"/>
+    <hyperlink ref="C6" r:id="rId7"/>
+    <hyperlink ref="B6" r:id="rId8" display="http://www.oracle.com"/>
+    <hyperlink ref="AE6" r:id="rId9" display="https://youtu.be/HXhWpu17N6c"/>
+    <hyperlink ref="B8" r:id="rId10"/>
+    <hyperlink ref="C8" r:id="rId11"/>
+    <hyperlink ref="C10" r:id="rId12"/>
+    <hyperlink ref="B10" r:id="rId13"/>
+    <hyperlink ref="B12" r:id="rId14"/>
+    <hyperlink ref="C12" r:id="rId15"/>
+    <hyperlink ref="AE12" r:id="rId16"/>
+    <hyperlink ref="AE7" r:id="rId17" display="https://youtu.be/SDVT6PWXC_k"/>
+    <hyperlink ref="C7" r:id="rId18"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="8"/>
+    <col min="2" max="2" width="130.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="117.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF4"/>
+  <sheetViews>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:32" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="169.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z2" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA2" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD2" s="14">
+        <v>13.5</v>
+      </c>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="327" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z3" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA3" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB3" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE3" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF3" s="14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="158.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>15</v>
+        <v>74</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>172</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>155</v>
+        <v>179</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>180</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
@@ -1992,7 +3259,7 @@
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
       <c r="N4" s="14" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
@@ -2002,212 +3269,470 @@
       <c r="T4" s="14"/>
       <c r="U4" s="14"/>
       <c r="V4" s="14"/>
-      <c r="W4" s="14" t="s">
-        <v>90</v>
-      </c>
+      <c r="W4" s="14"/>
       <c r="X4" s="14"/>
       <c r="Y4" s="14" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="Z4" s="14" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="AA4" s="14" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="AB4" s="14" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="AC4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AD4" s="14">
-        <v>2.4</v>
-      </c>
-      <c r="AE4" s="19" t="s">
-        <v>159</v>
-      </c>
+      <c r="AD4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE4" s="14"/>
       <c r="AF4" s="14">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="AE3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="8" ySplit="2" topLeftCell="O6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="Y6" sqref="Y6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:32" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z2" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF2" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="360.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="T3" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="X3" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y3" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE3" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="AF3" s="14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="237" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="W4" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="AE4" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="AF4" s="14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>81</v>
+        <v>45</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>285</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>164</v>
+        <v>287</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>96</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
+      <c r="K5" s="14" t="s">
+        <v>288</v>
+      </c>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
-      <c r="N5" s="14" t="s">
-        <v>90</v>
-      </c>
+      <c r="N5" s="14"/>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
       <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
+      <c r="S5" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="U5" s="14"/>
       <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z5" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA5" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB5" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC5" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD5" s="14">
-        <v>13.5</v>
-      </c>
-      <c r="AE5" s="14"/>
+      <c r="W5" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14" t="s">
+        <v>286</v>
+      </c>
       <c r="AF5" s="14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>110</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
-      <c r="K6" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>90</v>
-      </c>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
       <c r="M6" s="14"/>
-      <c r="N6" s="14" t="s">
-        <v>90</v>
-      </c>
+      <c r="N6" s="14"/>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
       <c r="R6" s="14"/>
-      <c r="S6" s="14" t="s">
-        <v>90</v>
-      </c>
+      <c r="S6" s="14"/>
       <c r="T6" s="14"/>
-      <c r="U6" s="14" t="s">
-        <v>90</v>
-      </c>
+      <c r="U6" s="14"/>
       <c r="V6" s="14"/>
-      <c r="W6" s="14" t="s">
-        <v>90</v>
-      </c>
+      <c r="W6" s="14"/>
       <c r="X6" s="14"/>
-      <c r="Y6" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z6" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA6" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="AB6" s="14" t="s">
-        <v>187</v>
-      </c>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
       <c r="AC6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AD6" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE6" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="AF6" s="14">
-        <v>30</v>
-      </c>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF6" s="14"/>
     </row>
     <row r="7" spans="1:32" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>98</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
-      <c r="N7" s="14" t="s">
-        <v>90</v>
-      </c>
+      <c r="N7" s="14"/>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
@@ -2218,214 +3743,104 @@
       <c r="V7" s="14"/>
       <c r="W7" s="14"/>
       <c r="X7" s="14"/>
-      <c r="Y7" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="Z7" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="AA7" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="AB7" s="14" t="s">
-        <v>195</v>
-      </c>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
       <c r="AC7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AD7" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE7" s="14"/>
-      <c r="AF7" s="14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" ht="237" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF7" s="14"/>
+    </row>
+    <row r="8" spans="1:32" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="P8" s="14" t="s">
-        <v>90</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
-      <c r="R8" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="S8" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="T8" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="U8" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="V8" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="W8" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="X8" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y8" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="Z8" s="17" t="s">
-        <v>208</v>
-      </c>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
       <c r="AA8" s="14"/>
-      <c r="AB8" s="17" t="s">
-        <v>204</v>
-      </c>
+      <c r="AB8" s="14"/>
       <c r="AC8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AD8" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="AE8" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="AF8" s="14">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" ht="147" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF8" s="14"/>
+    </row>
+    <row r="9" spans="1:32" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>123</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
-      <c r="L9" s="14" t="s">
-        <v>90</v>
-      </c>
+      <c r="L9" s="14"/>
       <c r="M9" s="14"/>
-      <c r="N9" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="P9" s="14" t="s">
-        <v>90</v>
-      </c>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
       <c r="Q9" s="14"/>
-      <c r="R9" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="S9" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="T9" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="U9" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="V9" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="W9" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="X9" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y9" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="Z9" s="17" t="s">
-        <v>225</v>
-      </c>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
       <c r="AA9" s="14"/>
-      <c r="AB9" s="14" t="s">
-        <v>226</v>
-      </c>
+      <c r="AB9" s="14"/>
       <c r="AC9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AD9" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="AE9" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="AF9" s="14">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF9" s="14"/>
+    </row>
+    <row r="10" spans="1:32" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="27"/>
+        <v>36</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" s="14"/>
       <c r="D10" s="13"/>
       <c r="E10" s="14"/>
@@ -2452,16 +3867,16 @@
       <c r="Z10" s="14"/>
       <c r="AA10" s="14"/>
       <c r="AB10" s="14"/>
-      <c r="AC10" s="14" t="s">
-        <v>24</v>
-      </c>
+      <c r="AC10" s="14"/>
       <c r="AD10" s="14"/>
-      <c r="AE10" s="14"/>
+      <c r="AE10" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="AF10" s="14"/>
     </row>
     <row r="11" spans="1:32" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="14"/>
@@ -2490,112 +3905,54 @@
       <c r="Z11" s="14"/>
       <c r="AA11" s="14"/>
       <c r="AB11" s="14"/>
-      <c r="AC11" s="14" t="s">
-        <v>24</v>
-      </c>
+      <c r="AC11" s="14"/>
       <c r="AD11" s="14"/>
       <c r="AE11" s="14" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="AF11" s="14"/>
     </row>
-    <row r="12" spans="1:32" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="N12" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="O12" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="P12" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q12" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="R12" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="S12" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="T12" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="U12" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="V12" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="W12" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="X12" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y12" s="17" t="s">
-        <v>245</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
       <c r="Z12" s="14"/>
-      <c r="AA12" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="AB12" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="AC12" s="14" t="s">
-        <v>24</v>
-      </c>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
       <c r="AD12" s="14"/>
       <c r="AE12" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="AF12" s="14">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="AF12" s="14"/>
+    </row>
+    <row r="13" spans="1:32" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="14"/>
@@ -2624,18 +3981,16 @@
       <c r="Z13" s="14"/>
       <c r="AA13" s="14"/>
       <c r="AB13" s="14"/>
-      <c r="AC13" s="14" t="s">
-        <v>24</v>
-      </c>
+      <c r="AC13" s="14"/>
       <c r="AD13" s="14"/>
       <c r="AE13" s="14" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="AF13" s="14"/>
     </row>
-    <row r="14" spans="1:32" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="14"/>
@@ -2663,19 +4018,17 @@
       <c r="Y14" s="14"/>
       <c r="Z14" s="14"/>
       <c r="AA14" s="14"/>
-      <c r="AB14" s="14"/>
-      <c r="AC14" s="14" t="s">
-        <v>24</v>
-      </c>
+      <c r="AB14" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC14" s="14"/>
       <c r="AD14" s="14"/>
-      <c r="AE14" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="AE14" s="14"/>
       <c r="AF14" s="14"/>
     </row>
-    <row r="15" spans="1:32" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="14"/>
@@ -2703,19 +4056,17 @@
       <c r="Y15" s="14"/>
       <c r="Z15" s="14"/>
       <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="14" t="s">
-        <v>24</v>
-      </c>
+      <c r="AB15" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC15" s="14"/>
       <c r="AD15" s="14"/>
-      <c r="AE15" s="14" t="s">
-        <v>35</v>
-      </c>
+      <c r="AE15" s="14"/>
       <c r="AF15" s="14"/>
     </row>
-    <row r="16" spans="1:32" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="14"/>
@@ -2743,19 +4094,17 @@
       <c r="Y16" s="14"/>
       <c r="Z16" s="14"/>
       <c r="AA16" s="14"/>
-      <c r="AB16" s="14"/>
-      <c r="AC16" s="14" t="s">
-        <v>24</v>
-      </c>
+      <c r="AB16" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC16" s="14"/>
       <c r="AD16" s="14"/>
-      <c r="AE16" s="14" t="s">
-        <v>37</v>
-      </c>
+      <c r="AE16" s="14"/>
       <c r="AF16" s="14"/>
     </row>
-    <row r="17" spans="1:32" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="14"/>
@@ -2783,17 +4132,17 @@
       <c r="Y17" s="14"/>
       <c r="Z17" s="14"/>
       <c r="AA17" s="14"/>
-      <c r="AB17" s="14"/>
+      <c r="AB17" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="AC17" s="14"/>
       <c r="AD17" s="14"/>
-      <c r="AE17" s="14" t="s">
-        <v>39</v>
-      </c>
+      <c r="AE17" s="14"/>
       <c r="AF17" s="14"/>
     </row>
-    <row r="18" spans="1:32" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="14"/>
@@ -2821,17 +4170,17 @@
       <c r="Y18" s="14"/>
       <c r="Z18" s="14"/>
       <c r="AA18" s="14"/>
-      <c r="AB18" s="14"/>
+      <c r="AB18" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="AC18" s="14"/>
       <c r="AD18" s="14"/>
-      <c r="AE18" s="14" t="s">
-        <v>41</v>
-      </c>
+      <c r="AE18" s="14"/>
       <c r="AF18" s="14"/>
     </row>
-    <row r="19" spans="1:32" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="14"/>
@@ -2859,17 +4208,17 @@
       <c r="Y19" s="14"/>
       <c r="Z19" s="14"/>
       <c r="AA19" s="14"/>
-      <c r="AB19" s="14"/>
+      <c r="AB19" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="AC19" s="14"/>
       <c r="AD19" s="14"/>
-      <c r="AE19" s="14" t="s">
-        <v>43</v>
-      </c>
+      <c r="AE19" s="14"/>
       <c r="AF19" s="14"/>
     </row>
-    <row r="20" spans="1:32" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="14"/>
@@ -2897,17 +4246,17 @@
       <c r="Y20" s="14"/>
       <c r="Z20" s="14"/>
       <c r="AA20" s="14"/>
-      <c r="AB20" s="14"/>
+      <c r="AB20" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="AC20" s="14"/>
       <c r="AD20" s="14"/>
-      <c r="AE20" s="14" t="s">
-        <v>45</v>
-      </c>
+      <c r="AE20" s="14"/>
       <c r="AF20" s="14"/>
     </row>
-    <row r="21" spans="1:32" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="14"/>
@@ -2935,23 +4284,29 @@
       <c r="Y21" s="14"/>
       <c r="Z21" s="14"/>
       <c r="AA21" s="14"/>
-      <c r="AB21" s="14"/>
+      <c r="AB21" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="AC21" s="14"/>
       <c r="AD21" s="14"/>
-      <c r="AE21" s="14" t="s">
-        <v>48</v>
-      </c>
+      <c r="AE21" s="14"/>
       <c r="AF21" s="14"/>
     </row>
-    <row r="22" spans="1:32" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="13"/>
+        <v>64</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>167</v>
+      </c>
       <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
+      <c r="F22" s="17" t="s">
+        <v>166</v>
+      </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
@@ -2976,995 +4331,78 @@
       <c r="AB22" s="14"/>
       <c r="AC22" s="14"/>
       <c r="AD22" s="14"/>
-      <c r="AE22" s="14" t="s">
-        <v>49</v>
-      </c>
+      <c r="AE22" s="14"/>
       <c r="AF22" s="14"/>
     </row>
-    <row r="23" spans="1:32" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="14"/>
-      <c r="Z23" s="14"/>
-      <c r="AA23" s="14"/>
-      <c r="AB23" s="14"/>
-      <c r="AC23" s="14"/>
-      <c r="AD23" s="14"/>
-      <c r="AE23" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF23" s="14"/>
-    </row>
-    <row r="24" spans="1:32" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="14"/>
-      <c r="Z24" s="14"/>
-      <c r="AA24" s="14"/>
-      <c r="AB24" s="14"/>
-      <c r="AC24" s="14"/>
-      <c r="AD24" s="14"/>
-      <c r="AE24" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF24" s="14"/>
-    </row>
-    <row r="25" spans="1:32" ht="282" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="14"/>
-      <c r="AA25" s="14"/>
-      <c r="AB25" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC25" s="14"/>
-      <c r="AD25" s="14"/>
-      <c r="AE25" s="14"/>
-      <c r="AF25" s="14"/>
-    </row>
-    <row r="26" spans="1:32" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="14"/>
-      <c r="Z26" s="14"/>
-      <c r="AA26" s="14"/>
-      <c r="AB26" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC26" s="14"/>
-      <c r="AD26" s="14"/>
-      <c r="AE26" s="14"/>
-      <c r="AF26" s="14"/>
-    </row>
-    <row r="27" spans="1:32" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="14"/>
-      <c r="Y27" s="14"/>
-      <c r="Z27" s="14"/>
-      <c r="AA27" s="14"/>
-      <c r="AB27" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC27" s="14"/>
-      <c r="AD27" s="14"/>
-      <c r="AE27" s="14"/>
-      <c r="AF27" s="14"/>
-    </row>
-    <row r="28" spans="1:32" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="14"/>
-      <c r="Z28" s="14"/>
-      <c r="AA28" s="14"/>
-      <c r="AB28" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC28" s="14"/>
-      <c r="AD28" s="14"/>
-      <c r="AE28" s="14"/>
-      <c r="AF28" s="14"/>
-    </row>
-    <row r="29" spans="1:32" ht="282" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14"/>
-      <c r="Y29" s="14"/>
-      <c r="Z29" s="14"/>
-      <c r="AA29" s="14"/>
-      <c r="AB29" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC29" s="14"/>
-      <c r="AD29" s="14"/>
-      <c r="AE29" s="14"/>
-      <c r="AF29" s="14"/>
-    </row>
-    <row r="30" spans="1:32" ht="203.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
-      <c r="X30" s="14"/>
-      <c r="Y30" s="14"/>
-      <c r="Z30" s="14"/>
-      <c r="AA30" s="14"/>
-      <c r="AB30" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC30" s="14"/>
-      <c r="AD30" s="14"/>
-      <c r="AE30" s="14"/>
-      <c r="AF30" s="14"/>
-    </row>
-    <row r="31" spans="1:32" ht="147" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="14"/>
-      <c r="X31" s="14"/>
-      <c r="Y31" s="14"/>
-      <c r="Z31" s="14"/>
-      <c r="AA31" s="14"/>
-      <c r="AB31" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC31" s="14"/>
-      <c r="AD31" s="14"/>
-      <c r="AE31" s="14"/>
-      <c r="AF31" s="14"/>
-    </row>
-    <row r="32" spans="1:32" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="14"/>
-      <c r="V32" s="14"/>
-      <c r="W32" s="14"/>
-      <c r="X32" s="14"/>
-      <c r="Y32" s="14"/>
-      <c r="Z32" s="14"/>
-      <c r="AA32" s="14"/>
-      <c r="AB32" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC32" s="14"/>
-      <c r="AD32" s="14"/>
-      <c r="AE32" s="14"/>
-      <c r="AF32" s="14"/>
-    </row>
-    <row r="33" spans="1:32" ht="169.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="14"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="14"/>
-      <c r="V33" s="14"/>
-      <c r="W33" s="14"/>
-      <c r="X33" s="14"/>
-      <c r="Y33" s="14"/>
-      <c r="Z33" s="14"/>
-      <c r="AA33" s="14"/>
-      <c r="AB33" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC33" s="14"/>
-      <c r="AD33" s="14"/>
-      <c r="AE33" s="14"/>
-      <c r="AF33" s="14"/>
-    </row>
-    <row r="34" spans="1:32" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="14"/>
-      <c r="V34" s="14"/>
-      <c r="W34" s="14"/>
-      <c r="X34" s="14"/>
-      <c r="Y34" s="14"/>
-      <c r="Z34" s="14"/>
-      <c r="AA34" s="14"/>
-      <c r="AB34" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC34" s="14"/>
-      <c r="AD34" s="14"/>
-      <c r="AE34" s="14"/>
-      <c r="AF34" s="14"/>
-    </row>
-    <row r="35" spans="1:32" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="14"/>
-      <c r="T35" s="14"/>
-      <c r="U35" s="14"/>
-      <c r="V35" s="14"/>
-      <c r="W35" s="14"/>
-      <c r="X35" s="14"/>
-      <c r="Y35" s="14"/>
-      <c r="Z35" s="14"/>
-      <c r="AA35" s="14"/>
-      <c r="AB35" s="14"/>
-      <c r="AC35" s="14"/>
-      <c r="AD35" s="14"/>
-      <c r="AE35" s="14"/>
-      <c r="AF35" s="14"/>
-    </row>
-    <row r="36" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="AC36" s="14" t="s">
+    <row r="23" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AC23" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="AC37" s="14" t="s">
+    <row r="24" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AC24" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AE37" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="38" spans="1:32" s="24" customFormat="1" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="22"/>
-      <c r="U38" s="22"/>
-      <c r="V38" s="22"/>
-      <c r="W38" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="X38" s="22"/>
-      <c r="Y38" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z38" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA38" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="AB38" s="22"/>
-      <c r="AC38" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD38" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE38" s="22"/>
-      <c r="AF38" s="22">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:32" s="24" customFormat="1" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="30" t="s">
-        <v>228</v>
-      </c>
-      <c r="B39" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="C39" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="D39" s="31" t="s">
-        <v>239</v>
-      </c>
-      <c r="E39" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="F39" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="G39" s="32"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="M39" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="N39" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="O39" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="P39" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q39" s="31"/>
-      <c r="R39" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="S39" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="T39" s="31"/>
-      <c r="U39" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="V39" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="W39" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="X39" s="31"/>
-      <c r="Y39" s="31"/>
-      <c r="Z39" s="31"/>
-      <c r="AA39" s="31"/>
-      <c r="AB39" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="AC39" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD39" s="31"/>
-      <c r="AE39" s="33"/>
-      <c r="AF39" s="31">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:32" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="E40" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="F40" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="G40" t="s">
-        <v>219</v>
-      </c>
-      <c r="K40" t="s">
-        <v>90</v>
-      </c>
-      <c r="P40" t="s">
-        <v>90</v>
-      </c>
-      <c r="S40" t="s">
-        <v>90</v>
-      </c>
-      <c r="U40" t="s">
-        <v>90</v>
-      </c>
-      <c r="V40" t="s">
-        <v>90</v>
-      </c>
-      <c r="W40" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="X40" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y40" s="29" t="s">
-        <v>222</v>
-      </c>
-      <c r="AB40" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="AC40" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:32" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="E41" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="F41" s="28" t="s">
-        <v>260</v>
-      </c>
-      <c r="G41" s="28" t="s">
-        <v>252</v>
-      </c>
-      <c r="I41" t="s">
-        <v>256</v>
-      </c>
-      <c r="J41" t="s">
-        <v>90</v>
-      </c>
-      <c r="K41" t="s">
-        <v>90</v>
-      </c>
-      <c r="N41" t="s">
-        <v>90</v>
-      </c>
-      <c r="O41" t="s">
-        <v>90</v>
-      </c>
-      <c r="P41" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>90</v>
-      </c>
-      <c r="R41" t="s">
-        <v>90</v>
-      </c>
-      <c r="W41" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="X41" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y41" s="28" t="s">
-        <v>258</v>
-      </c>
-      <c r="Z41" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="AA41" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="AB41" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="AC41" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD41" t="s">
-        <v>250</v>
-      </c>
-      <c r="AE41" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="AF41">
-        <v>30</v>
+      <c r="AE24" s="4" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AE2" r:id="rId1" display="http://www.demosdesoftware.com/videos/3002/workflow/automatizacion-de-procesos-documentales-con-adonis-dms/"/>
-    <hyperlink ref="AE11" r:id="rId2"/>
-    <hyperlink ref="AE12" r:id="rId3" display="http://www.demosdesoftware.com/videos/3019/workflow/automatizacion-de-procesos-documentales-con-auraportal-ibpms/"/>
-    <hyperlink ref="AE3" r:id="rId4" display="http://www.demosdesoftware.com/videos/3003/workflow/automatizacion-de-procesos-documentales-con-bonitasoft-y-alfresco/"/>
-    <hyperlink ref="AE13" r:id="rId5"/>
-    <hyperlink ref="AE14" r:id="rId6"/>
-    <hyperlink ref="AE15" r:id="rId7"/>
-    <hyperlink ref="AE16" r:id="rId8"/>
-    <hyperlink ref="AE17" r:id="rId9"/>
-    <hyperlink ref="AE18" r:id="rId10"/>
-    <hyperlink ref="AE19" r:id="rId11"/>
-    <hyperlink ref="AE20" r:id="rId12"/>
-    <hyperlink ref="AE21" r:id="rId13"/>
-    <hyperlink ref="AE22" r:id="rId14"/>
-    <hyperlink ref="AE23" r:id="rId15"/>
-    <hyperlink ref="AE24" r:id="rId16"/>
-    <hyperlink ref="C35" r:id="rId17"/>
-    <hyperlink ref="AE4" r:id="rId18"/>
-    <hyperlink ref="B36" r:id="rId19"/>
-    <hyperlink ref="C36" r:id="rId20"/>
-    <hyperlink ref="B37" r:id="rId21"/>
-    <hyperlink ref="AE37" r:id="rId22"/>
-    <hyperlink ref="C6" r:id="rId23"/>
-    <hyperlink ref="AE6" r:id="rId24"/>
-    <hyperlink ref="C8" r:id="rId25"/>
-    <hyperlink ref="AE8" r:id="rId26"/>
-    <hyperlink ref="C9" r:id="rId27"/>
-    <hyperlink ref="B9" r:id="rId28"/>
-    <hyperlink ref="AE9" r:id="rId29" display="https://youtu.be/HXhWpu17N6c"/>
-    <hyperlink ref="B12" r:id="rId30"/>
-    <hyperlink ref="C12" r:id="rId31"/>
-    <hyperlink ref="C39" r:id="rId32"/>
-    <hyperlink ref="B39" r:id="rId33"/>
-    <hyperlink ref="B41" r:id="rId34"/>
-    <hyperlink ref="C41" r:id="rId35"/>
-    <hyperlink ref="AE41" r:id="rId36"/>
+    <hyperlink ref="AE3" r:id="rId1" display="http://www.demosdesoftware.com/videos/3010/workflow/automatizacion-de-procesos-documentales-con-athento/"/>
+    <hyperlink ref="AE4" r:id="rId2" display="http://www.demosdesoftware.com/videos/3012/workflow/automatizacion-de-procesos-documentales-con-onbase/"/>
+    <hyperlink ref="AE2" r:id="rId3"/>
+    <hyperlink ref="AE5" r:id="rId4" display="http://www.demosdesoftware.com/videos/3013/workflow/procesos-documentales-con-r2-docuo/"/>
+    <hyperlink ref="C3" r:id="rId5"/>
+    <hyperlink ref="C4" r:id="rId6"/>
+    <hyperlink ref="C2" r:id="rId7"/>
+    <hyperlink ref="B5" r:id="rId8"/>
+    <hyperlink ref="C5" r:id="rId9"/>
+    <hyperlink ref="AE6" r:id="rId10"/>
+    <hyperlink ref="AE7" r:id="rId11"/>
+    <hyperlink ref="AE8" r:id="rId12"/>
+    <hyperlink ref="AE9" r:id="rId13"/>
+    <hyperlink ref="AE10" r:id="rId14"/>
+    <hyperlink ref="AE11" r:id="rId15"/>
+    <hyperlink ref="AE12" r:id="rId16"/>
+    <hyperlink ref="AE13" r:id="rId17"/>
+    <hyperlink ref="C22" r:id="rId18"/>
+    <hyperlink ref="B23" r:id="rId19"/>
+    <hyperlink ref="C23" r:id="rId20"/>
+    <hyperlink ref="B24" r:id="rId21"/>
+    <hyperlink ref="AE24" r:id="rId22"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="8"/>
-    <col min="2" max="2" width="130.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="117.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/drafts/bpm/comparativas/COMPARATIVAS.xlsx
+++ b/drafts/bpm/comparativas/COMPARATIVAS.xlsx
@@ -4,20 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6195" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6195" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="COMPARATIVA-SW-MOTORES-BPM" sheetId="2" r:id="rId1"/>
-    <sheet name="GLOSARIO" sheetId="3" r:id="rId2"/>
+    <sheet name="GLOSARIO" sheetId="3" r:id="rId1"/>
+    <sheet name="COMPARATIVA-SW-MOTORES-BPM" sheetId="2" r:id="rId2"/>
     <sheet name="COMPARATIVA-SW-MODELADO-BPM" sheetId="4" r:id="rId3"/>
     <sheet name="COMPARATIVA-SW-GESTOR-PROC-DOC-" sheetId="5" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'COMPARATIVA-SW-MODELADO-BPM'!$A$1:$AF$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'COMPARATIVA-SW-MOTORES-BPM'!$A$1:$AF$11</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="294">
   <si>
     <t>ADONIS: CE</t>
   </si>
@@ -200,6 +204,9 @@
     <t>Appian tiene un enfoque estratégico en la provisión de una plataforma de bajo código para crear rápidamente aplicaciones de negocios críticas, seguras y de misión crítica. Como Líder tanto en DPA de Forrester como en Forrester Waves de bajo código, está bien posicionada para ayudar a los clientes en aplicaciones de procesos complejos a la vez que admite la automatización eficiente de una amplia gama de procesos necesarios para impulsar una verdadera transformación digital. Appian cubre la mayoría de los requisitos tradicionales de BPM con una combinación de capacidades nativas, incluida su oferta de administración de decisiones comerciales recientemente presentada. Las ofertas de socio preintegradas amplían aún más las características de Appian. Todo esto, combinado con un compromiso temprano de bajo código para el desarrollo rápido de aplicaciones, significa que Appian está bien posicionado para llevar a los clientes a lo más profundo de DPA. Appian tiene referencias positivas de los clientes, particularmente con respecto a la velocidad y la agilidad del desarrollo.</t>
   </si>
   <si>
+    <t>Software AG</t>
+  </si>
+  <si>
     <t>Nintex</t>
   </si>
   <si>
@@ -516,9 +523,6 @@
     <t>BONITA BPM</t>
   </si>
   <si>
-    <t>Aris Community</t>
-  </si>
-  <si>
     <t>- Modelado de procesos</t>
   </si>
   <si>
@@ -532,16 +536,10 @@
     <t>Fácil instalación. Existen requisitos mínimos del sistema, previos a la instalacion</t>
   </si>
   <si>
-    <t>Difícil de modelar los subprocesos por falta de espacio. Además es difícil poner texto entre los conectores</t>
-  </si>
-  <si>
     <t>http://www.ariscommunity.com/videos/learn-how-model-bpmn-diagrams-aris-express</t>
   </si>
   <si>
     <t>Fue fundada en el 2000</t>
-  </si>
-  <si>
-    <t>Su primera versión fue creada en 2009 y la última fue en 2011 que es la 2.4</t>
   </si>
   <si>
     <t>Orientada unicamente a modelado de procesos. Está bien para un primer acercamiento al modelado y desde el punto de vista académico.</t>
@@ -803,10 +801,6 @@
     <t>Flokzu es un software que funciona en la nube, no requiere de ninguna instalación</t>
   </si>
   <si>
-    <t>CE
-PAGO</t>
-  </si>
-  <si>
     <t>- formularios personalizados
 - biblioteca de procesos gratis
 - adjuntar archivos de cualquier tipo
@@ -918,9 +912,6 @@
     <t>https://camunda.com/products/</t>
   </si>
   <si>
-    <t>- orquestación de servicios (micro) y la gestión de tareas humanas</t>
-  </si>
-  <si>
     <t>7.8</t>
   </si>
   <si>
@@ -1020,9 +1011,6 @@
     <t>Basado en sistemas Microsoft</t>
   </si>
   <si>
-    <t>BizTalk Serveres un publicar y suscribirse arquitectura que utiliza adaptadores enviar y recibir mensajes, implementa procesos empresariales a través de orquestacióne incluye administración y seguimiento de estas partes diferentes. BizTalk Server También incluye administración de socios comerciales para la mensajería negocio a negocio, alta disponibilidad para maximizar el tiempo de actividad, una plataforma de desarrollo para crear sus propios componentes, una consola de administración para administrar los artefactos dey para administrar la supervisión de la actividad económica agregaciones, alertas y perfiles.</t>
-  </si>
-  <si>
     <t>http://www.athento.com/es/caracteristicas-tecnicas/</t>
   </si>
   <si>
@@ -1118,6 +1106,35 @@
     <t>- Servicio de nube, se cobra por uso
 - Producto Español para uso en Europa, con leyes españolas y europeas
 - Firma electronica avanzada</t>
+  </si>
+  <si>
+    <t>Su primera versión fue creada en 2009</t>
+  </si>
+  <si>
+    <t>https://youtu.be/THp0khnK1pc</t>
+  </si>
+  <si>
+    <t>flokzu</t>
+  </si>
+  <si>
+    <t>https://www.flokzu.com/planes</t>
+  </si>
+  <si>
+    <t>- Servicio en la nube
+- Orquestación de servicios (micro) y la gestión de tareas humanas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Poca trayectoria comercial empezó en 2017
+- Poco personalizable</t>
+  </si>
+  <si>
+    <t>Comenzó en 2017, es una idea innovadora y que parece que el mercado demanda. Pagar solo por su uso como servicio y olvidarse de mantenimiento de los sistemas, desarrollos, etc.</t>
+  </si>
+  <si>
+    <t>BizTalk Server es un publicar y suscribirse arquitectura que utiliza adaptadores enviar y recibir mensajes, implementa procesos empresariales a través de orquestacióne incluye administración y seguimiento de estas partes diferentes. BizTalk Server También incluye administración de socios comerciales para la mensajería negocio a negocio, alta disponibilidad para maximizar el tiempo de actividad, una plataforma de desarrollo para crear sus propios componentes, una consola de administración para administrar los artefactos y para administrar la supervisión de la actividad económica agregaciones, alertas y perfiles.</t>
+  </si>
+  <si>
+    <t>https://www.auraportal.com/es/producto/</t>
   </si>
 </sst>
 </file>
@@ -1204,7 +1221,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1229,7 +1246,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1408,16 +1431,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1427,22 +1440,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1749,13 +1774,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF12"/>
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="8"/>
+    <col min="2" max="2" width="130.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="117.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF11"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1763,7 +1944,7 @@
     <col min="1" max="1" width="19.140625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="5"/>
+    <col min="4" max="4" width="12" style="5" customWidth="1"/>
     <col min="5" max="5" width="19" style="5" customWidth="1"/>
     <col min="6" max="6" width="15" style="5" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" customWidth="1"/>
@@ -1792,13 +1973,13 @@
   <sheetData>
     <row r="1" spans="1:32" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>14</v>
@@ -1807,7 +1988,7 @@
         <v>18</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>16</v>
@@ -1816,1185 +1997,980 @@
         <v>19</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="X1" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Y1" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Z1" s="6" t="s">
         <v>21</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AC1" s="6" t="s">
         <v>23</v>
       </c>
       <c r="AD1" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AE1" s="6" t="s">
         <v>30</v>
       </c>
       <c r="AF1" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="147" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>132</v>
+        <v>201</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>170</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>111</v>
+        <v>202</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>133</v>
+        <v>204</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="17" t="s">
-        <v>104</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="M2" s="14"/>
       <c r="N2" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="R2" s="14"/>
-      <c r="S2" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>81</v>
       </c>
       <c r="W2" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z2" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA2" s="14" t="s">
-        <v>116</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="X2" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y2" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z2" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA2" s="14"/>
       <c r="AB2" s="14" t="s">
-        <v>115</v>
+        <v>212</v>
       </c>
       <c r="AC2" s="14" t="s">
         <v>24</v>
       </c>
       <c r="AD2" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE2" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="AF2" s="14">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="AE2" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF2" s="14">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" ht="237" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>135</v>
-      </c>
       <c r="I3" s="14" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="L3" s="14"/>
+        <v>81</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>114</v>
+      </c>
       <c r="M3" s="14" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q3" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R3" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S3" s="14" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="T3" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="U3" s="14"/>
+        <v>114</v>
+      </c>
+      <c r="U3" s="14" t="s">
+        <v>81</v>
+      </c>
       <c r="V3" s="14" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="W3" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="X3" s="14"/>
+        <v>81</v>
+      </c>
+      <c r="X3" s="14" t="s">
+        <v>81</v>
+      </c>
       <c r="Y3" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z3" s="17" t="s">
-        <v>159</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="Z3" s="14"/>
       <c r="AA3" s="14" t="s">
-        <v>139</v>
+        <v>221</v>
       </c>
       <c r="AB3" s="17" t="s">
-        <v>141</v>
+        <v>227</v>
       </c>
       <c r="AC3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AD3" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE3" s="18" t="s">
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="AF3" s="14">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="237" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="W4" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z4" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA4" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB4" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="AF3" s="14">
+      <c r="AC4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD4" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE4" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF4" s="14">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:32" s="22" customFormat="1" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z4" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA4" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB4" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC4" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD4" s="21">
-        <v>2.4</v>
-      </c>
-      <c r="AE4" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="AF4" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" ht="248.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" ht="237" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C5" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>192</v>
-      </c>
       <c r="J5" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="14"/>
       <c r="R5" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S5" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T5" s="14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U5" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V5" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W5" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X5" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y5" s="17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Z5" s="17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AA5" s="14"/>
       <c r="AB5" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AC5" s="14" t="s">
         <v>24</v>
       </c>
       <c r="AD5" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AE5" s="18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AF5" s="14">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="169.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="S6" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="T6" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="U6" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="V6" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="W6" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="X6" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y6" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z6" s="17" t="s">
+    <row r="6" spans="1:32" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z6" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA6" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD6" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE6" s="25"/>
+      <c r="AF6" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="F7" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="AC6" s="14" t="s">
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="N7" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="S7" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="V7" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="W7" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="AC7" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="AD6" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="AE6" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="AF6" s="14">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="P7" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q7" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="R7" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="S7" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="T7" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="U7" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="V7" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="W7" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="X7" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y7" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="Z7" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="AC7" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD7" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="AE7" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="AF7" s="14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" ht="237" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="30"/>
+      <c r="AF7" s="30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>228</v>
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>133</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>223</v>
+        <v>112</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>232</v>
+        <v>134</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>225</v>
+        <v>17</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>80</v>
+        <v>114</v>
+      </c>
+      <c r="L8" s="14"/>
+      <c r="M8" s="17" t="s">
+        <v>105</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="R8" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="S8" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="T8" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="U8" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="V8" s="14" t="s">
-        <v>80</v>
+        <v>114</v>
+      </c>
+      <c r="R8" s="14"/>
+      <c r="S8" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="W8" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="X8" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y8" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="Z8" s="14"/>
+        <v>81</v>
+      </c>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z8" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="AA8" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="AB8" s="17" t="s">
-        <v>230</v>
+        <v>117</v>
+      </c>
+      <c r="AB8" s="14" t="s">
+        <v>116</v>
       </c>
       <c r="AC8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AD8" s="14"/>
+      <c r="AD8" s="14" t="s">
+        <v>115</v>
+      </c>
       <c r="AE8" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF8" s="14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="R9" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="X9" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y9" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z9" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="AA9" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB9" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="AC9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD9" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="AF8" s="14">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" s="22" customFormat="1" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21" t="s">
+      <c r="AE9" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="AF9" s="14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="U10" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="V10" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="W10" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="X10" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y10" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z10" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="AC10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD10" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="AE10" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="AF10" s="14">
         <v>20</v>
-      </c>
-      <c r="Z9" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA9" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD9" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="21">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" s="22" customFormat="1" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="M10" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="N10" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="O10" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="P10" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="S10" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="V10" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="W10" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="27"/>
-      <c r="AB10" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="AC10" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD10" s="27"/>
-      <c r="AE10" s="29"/>
-      <c r="AF10" s="27">
-        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="18"/>
+        <v>187</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>288</v>
+      </c>
       <c r="D11" s="14" t="s">
-        <v>209</v>
+        <v>170</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>237</v>
+        <v>289</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
       <c r="P11" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
       <c r="S11" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T11" s="14"/>
       <c r="U11" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V11" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W11" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X11" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y11" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="14"/>
+        <v>208</v>
+      </c>
+      <c r="Z11" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA11" s="14" t="s">
+        <v>291</v>
+      </c>
       <c r="AB11" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AC11" s="14" t="s">
         <v>24</v>
       </c>
       <c r="AD11" s="14"/>
-      <c r="AE11" s="18"/>
-      <c r="AF11" s="14"/>
-    </row>
-    <row r="12" spans="1:32" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="O12" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="P12" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q12" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="R12" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="X12" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y12" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="Z12" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="AA12" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="AB12" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="AC12" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD12" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="AE12" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="AF12" s="14">
-        <v>30</v>
+      <c r="AE11" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="AF11" s="14">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AF11">
+    <sortState ref="A2:AF11">
+      <sortCondition descending="1" ref="AF1:AF11"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="AE2" r:id="rId1" display="http://www.demosdesoftware.com/videos/3002/workflow/automatizacion-de-procesos-documentales-con-adonis-dms/"/>
-    <hyperlink ref="AE8" r:id="rId2" display="http://www.demosdesoftware.com/videos/3019/workflow/automatizacion-de-procesos-documentales-con-auraportal-ibpms/"/>
-    <hyperlink ref="AE3" r:id="rId3" display="http://www.demosdesoftware.com/videos/3003/workflow/automatizacion-de-procesos-documentales-con-bonitasoft-y-alfresco/"/>
-    <hyperlink ref="AE4" r:id="rId4"/>
-    <hyperlink ref="C5" r:id="rId5"/>
-    <hyperlink ref="AE5" r:id="rId6"/>
-    <hyperlink ref="C6" r:id="rId7"/>
-    <hyperlink ref="B6" r:id="rId8" display="http://www.oracle.com"/>
-    <hyperlink ref="AE6" r:id="rId9" display="https://youtu.be/HXhWpu17N6c"/>
-    <hyperlink ref="B8" r:id="rId10"/>
-    <hyperlink ref="C8" r:id="rId11"/>
-    <hyperlink ref="C10" r:id="rId12"/>
-    <hyperlink ref="B10" r:id="rId13"/>
-    <hyperlink ref="B12" r:id="rId14"/>
-    <hyperlink ref="C12" r:id="rId15"/>
-    <hyperlink ref="AE12" r:id="rId16"/>
-    <hyperlink ref="AE7" r:id="rId17" display="https://youtu.be/SDVT6PWXC_k"/>
-    <hyperlink ref="C7" r:id="rId18"/>
+    <hyperlink ref="AE8" r:id="rId1" display="http://www.demosdesoftware.com/videos/3002/workflow/automatizacion-de-procesos-documentales-con-adonis-dms/"/>
+    <hyperlink ref="AE3" r:id="rId2" display="http://www.demosdesoftware.com/videos/3019/workflow/automatizacion-de-procesos-documentales-con-auraportal-ibpms/"/>
+    <hyperlink ref="AE4" r:id="rId3" display="http://www.demosdesoftware.com/videos/3003/workflow/automatizacion-de-procesos-documentales-con-bonitasoft-y-alfresco/"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="AE5" r:id="rId5"/>
+    <hyperlink ref="C2" r:id="rId6"/>
+    <hyperlink ref="B2" r:id="rId7" display="http://www.oracle.com"/>
+    <hyperlink ref="AE2" r:id="rId8" display="https://youtu.be/HXhWpu17N6c"/>
+    <hyperlink ref="B3" r:id="rId9"/>
+    <hyperlink ref="C3" r:id="rId10"/>
+    <hyperlink ref="C7" r:id="rId11"/>
+    <hyperlink ref="B7" r:id="rId12"/>
+    <hyperlink ref="B9" r:id="rId13"/>
+    <hyperlink ref="C9" r:id="rId14"/>
+    <hyperlink ref="AE9" r:id="rId15"/>
+    <hyperlink ref="AE10" r:id="rId16" display="https://youtu.be/SDVT6PWXC_k"/>
+    <hyperlink ref="C10" r:id="rId17"/>
+    <hyperlink ref="AE11" r:id="rId18"/>
+    <hyperlink ref="C11" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="8"/>
-    <col min="2" max="2" width="130.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="117.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF4"/>
+  <dimension ref="A1:AF5"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>14</v>
@@ -3003,7 +2979,7 @@
         <v>18</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>16</v>
@@ -3012,76 +2988,76 @@
         <v>19</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="X1" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Y1" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Z1" s="6" t="s">
         <v>21</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AC1" s="6" t="s">
         <v>23</v>
       </c>
       <c r="AD1" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AE1" s="6" t="s">
         <v>30</v>
       </c>
       <c r="AF1" s="16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="169.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3092,22 +3068,22 @@
         <v>11</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>70</v>
-      </c>
       <c r="H2" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
@@ -3115,7 +3091,7 @@
       <c r="L2" s="14"/>
       <c r="M2" s="14"/>
       <c r="N2" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O2" s="14"/>
       <c r="P2" s="14"/>
@@ -3128,16 +3104,16 @@
       <c r="W2" s="14"/>
       <c r="X2" s="14"/>
       <c r="Y2" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Z2" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AA2" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB2" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AC2" s="14" t="s">
         <v>24</v>
@@ -3152,68 +3128,68 @@
     </row>
     <row r="3" spans="1:32" ht="327" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D3" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="E3" s="23" t="s">
-        <v>174</v>
-      </c>
       <c r="F3" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M3" s="14"/>
       <c r="N3" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
       <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
       <c r="S3" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T3" s="14"/>
       <c r="U3" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V3" s="14"/>
       <c r="W3" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X3" s="14"/>
       <c r="Y3" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Z3" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA3" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB3" s="14" t="s">
         <v>175</v>
-      </c>
-      <c r="AA3" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="AB3" s="14" t="s">
-        <v>177</v>
       </c>
       <c r="AC3" s="14" t="s">
         <v>24</v>
@@ -3222,7 +3198,7 @@
         <v>6</v>
       </c>
       <c r="AE3" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AF3" s="14">
         <v>30</v>
@@ -3236,22 +3212,22 @@
         <v>13</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>73</v>
-      </c>
       <c r="H4" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
@@ -3259,7 +3235,7 @@
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
       <c r="N4" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
@@ -3272,16 +3248,16 @@
       <c r="W4" s="14"/>
       <c r="X4" s="14"/>
       <c r="Y4" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z4" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA4" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="Z4" s="14" t="s">
+      <c r="AB4" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="AA4" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="AB4" s="14" t="s">
-        <v>185</v>
       </c>
       <c r="AC4" s="14" t="s">
         <v>24</v>
@@ -3294,10 +3270,80 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:32" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="AB5" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD5" s="14">
+        <v>2.4</v>
+      </c>
+      <c r="AE5" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AF5" s="14">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:AF5"/>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
     <hyperlink ref="AE3" r:id="rId2"/>
+    <hyperlink ref="AE5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3307,24 +3353,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="O6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y6" sqref="Y6"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:32" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>14</v>
@@ -3333,7 +3379,7 @@
         <v>18</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>16</v>
@@ -3342,76 +3388,76 @@
         <v>19</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="X1" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Y1" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Z1" s="6" t="s">
         <v>21</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AC1" s="6" t="s">
         <v>23</v>
       </c>
       <c r="AD1" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AE1" s="6" t="s">
         <v>30</v>
       </c>
       <c r="AF1" s="16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3422,17 +3468,17 @@
         <v>43</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="17" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
@@ -3446,24 +3492,24 @@
       <c r="Q2" s="14"/>
       <c r="R2" s="14"/>
       <c r="S2" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T2" s="14"/>
       <c r="U2" s="14"/>
       <c r="V2" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W2" s="14"/>
       <c r="X2" s="14"/>
       <c r="Y2" s="17" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="Z2" s="14" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="AA2" s="14"/>
       <c r="AB2" s="14" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="AC2" s="14"/>
       <c r="AD2" s="14"/>
@@ -3482,22 +3528,22 @@
         <v>25</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E3" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="H3" s="17" t="s">
         <v>265</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>270</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
@@ -3506,41 +3552,41 @@
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="P3" s="14"/>
       <c r="Q3" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R3" s="14"/>
       <c r="S3" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T3" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U3" s="14"/>
       <c r="V3" s="14"/>
       <c r="W3" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X3" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y3" s="17" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="Z3" s="14"/>
       <c r="AA3" s="14"/>
       <c r="AB3" s="14" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="AC3" s="14"/>
       <c r="AD3" s="14" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AE3" s="14" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="AF3" s="14">
         <v>60</v>
@@ -3550,24 +3596,24 @@
       <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>278</v>
+      <c r="B4" s="20" t="s">
+        <v>273</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="17" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
@@ -3576,37 +3622,37 @@
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
       <c r="O4" s="14" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
       <c r="R4" s="14"/>
       <c r="S4" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T4" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U4" s="14"/>
       <c r="V4" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W4" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X4" s="14"/>
       <c r="Y4" s="14"/>
       <c r="Z4" s="14"/>
       <c r="AA4" s="14"/>
       <c r="AB4" s="14" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AC4" s="14"/>
       <c r="AD4" s="14" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="AE4" s="14" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AF4" s="14">
         <v>50</v>
@@ -3616,29 +3662,29 @@
       <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>285</v>
+      <c r="B5" s="20" t="s">
+        <v>280</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
       <c r="K5" s="14" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
@@ -3648,21 +3694,21 @@
       <c r="Q5" s="14"/>
       <c r="R5" s="14"/>
       <c r="S5" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T5" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U5" s="14"/>
       <c r="V5" s="14"/>
       <c r="W5" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X5" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y5" s="17" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="Z5" s="14"/>
       <c r="AA5" s="14"/>
@@ -3670,7 +3716,7 @@
       <c r="AC5" s="14"/>
       <c r="AD5" s="14"/>
       <c r="AE5" s="14" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="AF5" s="14">
         <v>70</v>
@@ -4066,7 +4112,7 @@
     </row>
     <row r="16" spans="1:32" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="14"/>
@@ -4095,7 +4141,7 @@
       <c r="Z16" s="14"/>
       <c r="AA16" s="14"/>
       <c r="AB16" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AC16" s="14"/>
       <c r="AD16" s="14"/>
@@ -4104,7 +4150,7 @@
     </row>
     <row r="17" spans="1:32" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="14"/>
@@ -4133,7 +4179,7 @@
       <c r="Z17" s="14"/>
       <c r="AA17" s="14"/>
       <c r="AB17" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC17" s="14"/>
       <c r="AD17" s="14"/>
@@ -4142,7 +4188,7 @@
     </row>
     <row r="18" spans="1:32" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="14"/>
@@ -4171,7 +4217,7 @@
       <c r="Z18" s="14"/>
       <c r="AA18" s="14"/>
       <c r="AB18" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC18" s="14"/>
       <c r="AD18" s="14"/>
@@ -4180,7 +4226,7 @@
     </row>
     <row r="19" spans="1:32" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="14"/>
@@ -4209,7 +4255,7 @@
       <c r="Z19" s="14"/>
       <c r="AA19" s="14"/>
       <c r="AB19" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AC19" s="14"/>
       <c r="AD19" s="14"/>
@@ -4218,7 +4264,7 @@
     </row>
     <row r="20" spans="1:32" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="14"/>
@@ -4247,7 +4293,7 @@
       <c r="Z20" s="14"/>
       <c r="AA20" s="14"/>
       <c r="AB20" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC20" s="14"/>
       <c r="AD20" s="14"/>
@@ -4256,7 +4302,7 @@
     </row>
     <row r="21" spans="1:32" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="14"/>
@@ -4285,7 +4331,7 @@
       <c r="Z21" s="14"/>
       <c r="AA21" s="14"/>
       <c r="AB21" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AC21" s="14"/>
       <c r="AD21" s="14"/>
@@ -4294,18 +4340,18 @@
     </row>
     <row r="22" spans="1:32" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
@@ -4336,13 +4382,13 @@
     </row>
     <row r="23" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -4358,10 +4404,10 @@
     </row>
     <row r="24" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -4375,7 +4421,7 @@
         <v>24</v>
       </c>
       <c r="AE24" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/drafts/bpm/comparativas/COMPARATIVAS.xlsx
+++ b/drafts/bpm/comparativas/COMPARATIVAS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6195" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6195" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="GLOSARIO" sheetId="3" r:id="rId1"/>
@@ -13,15 +13,17 @@
     <sheet name="COMPARATIVA-SW-GESTOR-PROC-DOC-" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'COMPARATIVA-SW-GESTOR-PROC-DOC-'!$A$1:$AF$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'COMPARATIVA-SW-MODELADO-BPM'!$A$1:$AF$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'COMPARATIVA-SW-MOTORES-BPM'!$A$1:$AF$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GLOSARIO!$A$1:$B$12</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="317">
   <si>
     <t>ADONIS: CE</t>
   </si>
@@ -620,9 +622,6 @@
     <t>Notifica tareas</t>
   </si>
   <si>
-    <t>- Orientado a flujo de documentos</t>
-  </si>
-  <si>
     <t>- Pago</t>
   </si>
   <si>
@@ -801,6 +800,10 @@
     <t>Flokzu es un software que funciona en la nube, no requiere de ninguna instalación</t>
   </si>
   <si>
+    <t>CE
+PAGO</t>
+  </si>
+  <si>
     <t>- formularios personalizados
 - biblioteca de procesos gratis
 - adjuntar archivos de cualquier tipo
@@ -1135,6 +1138,98 @@
   </si>
   <si>
     <t>https://www.auraportal.com/es/producto/</t>
+  </si>
+  <si>
+    <t>webratio</t>
+  </si>
+  <si>
+    <t>- WEBRATIO BPM PLATFORM
+- WEBRATIO WEB PLATFORM</t>
+  </si>
+  <si>
+    <t>IFML</t>
+  </si>
+  <si>
+    <t>El lenguaje de modelado de flujo de interacción ( IFML ) es un lenguaje de modelado estandarizado en el campo de la ingeniería de software. IFML incluye un conjunto de anotaciones gráficas para crear modelos visuales de las interacciones del usuario y el comportamiento del front-end en los sistemas de software.</t>
+  </si>
+  <si>
+    <t>https://www.webratio.com/site/content/es/precios</t>
+  </si>
+  <si>
+    <t>Nace en el 2001, sedes de Milán (Italia), Cuenca (Ecuador) y San Francisco (Estados Unidos).  Inventores de “Interaction Flow Modeling Language” (IFML).</t>
+  </si>
+  <si>
+    <t>- Solucion UX Moviles, con uso de funciones nativas de movil (Bluetooth, camara)
+- Retail
+- Distribución,Energía
+- Servicios Públicos
+- Viajes, Transporte
+- Educación
+- Investigación y Manufactura industrial</t>
+  </si>
+  <si>
+    <t>- Solucion UX Moviles, con uso de funciones nativas de movil (Bluetooth, camara)
+- Motor BPM mediante API rest presentado con swagger</t>
+  </si>
+  <si>
+    <t>- Orientado a la UX experiencia de usuario con el movil y con las funciones nativas del movil.
+- Curva de aprendizaje alto para el IFML</t>
+  </si>
+  <si>
+    <t>- Curva de aprendizaje alto para el IFML</t>
+  </si>
+  <si>
+    <t>8.</t>
+  </si>
+  <si>
+    <t>https://youtu.be/2egC5-WCPlg?list=PLWL2rmGHZGqThj19MUBibEeP4LRAPsQPF
+https://www.youtube.com/watch?v=AMd_3tEAs6s</t>
+  </si>
+  <si>
+    <t>ProcessMaker BPM</t>
+  </si>
+  <si>
+    <t>- ProcessMaker Cloud Edition
+- BPMN 2.0 Process Designer
+- ProcessMaker in situ
+- Motor BPM CE</t>
+  </si>
+  <si>
+    <t>- Diseñador 100% en web</t>
+  </si>
+  <si>
+    <t>ProcessMaker</t>
+  </si>
+  <si>
+    <t>- API REST RESTful
+- Autorizacion Oauth 2,0
+- Diseño de formularios propios
+- Uso de funciones nativas del movil
+- Generador de plantillas de documentos propios
+- Portal de usuario
+- vistas de columnas personalizadas dentro de los cuadros de casos de un usuario (bandeja de entrada, borrador, enviado, etc.)</t>
+  </si>
+  <si>
+    <t>https://www.processmaker.com/products/features/core
+https://www.processmaker.com/products/editions
+https://www.processmaker.com/products/features/enterprise</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>Herramienta que ofrece la mas completa y variadas funcionalidades del mercado. Con un uso muy intuitivo y que no necesita un alto nivel tecnico para el desarrollo de procesos.</t>
+  </si>
+  <si>
+    <t>https://www.processmaker.com/sites/all/themes/pmthemev2/videos/3minteaser_newforms.mp4
+https://www.processmaker.com/resources/videos
+https://youtu.be/VMzxoTAfeOI</t>
+  </si>
+  <si>
+    <t>Gratuito para modelado y documentación, en la nube, sin instalación o mantenimiento</t>
+  </si>
+  <si>
+    <t>- Orientado a flujo de documentos en la nube4</t>
   </si>
 </sst>
 </file>
@@ -1381,7 +1476,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1469,6 +1564,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1777,7 +1887,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1796,78 +1906,83 @@
     </row>
     <row r="2" spans="1:2" ht="117.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>79</v>
+        <v>93</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>83</v>
+        <v>237</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>129</v>
+        <v>296</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>130</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>127</v>
+        <v>184</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>128</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>185</v>
+        <v>83</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>238</v>
+        <v>76</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
+      <c r="A11" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
@@ -1924,19 +2039,24 @@
       <c r="A29" s="11"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B12">
+    <sortState ref="A2:B12">
+      <sortCondition ref="A1:A12"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF11"/>
+  <dimension ref="A1:AF13"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1946,25 +2066,25 @@
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="12" style="5" customWidth="1"/>
     <col min="5" max="5" width="19" style="5" customWidth="1"/>
-    <col min="6" max="6" width="15" style="5" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" style="5" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" customWidth="1"/>
-    <col min="16" max="18" width="13.7109375" customWidth="1"/>
-    <col min="19" max="19" width="13.85546875" customWidth="1"/>
-    <col min="20" max="21" width="14.28515625" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" customWidth="1"/>
-    <col min="23" max="23" width="11.140625" style="5" customWidth="1"/>
-    <col min="24" max="24" width="18.140625" customWidth="1"/>
-    <col min="25" max="25" width="14.140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="36" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" style="36" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="36" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="36" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" style="36" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" style="36" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" style="36" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" style="36" customWidth="1"/>
+    <col min="16" max="18" width="13.7109375" style="36" customWidth="1"/>
+    <col min="19" max="19" width="13.85546875" style="36" customWidth="1"/>
+    <col min="20" max="21" width="14.28515625" style="36" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="36" customWidth="1"/>
+    <col min="23" max="23" width="11.140625" style="36" customWidth="1"/>
+    <col min="24" max="24" width="18.140625" style="36" customWidth="1"/>
+    <col min="25" max="25" width="22.7109375" style="5" customWidth="1"/>
     <col min="26" max="26" width="15" style="5" customWidth="1"/>
-    <col min="27" max="27" width="15.7109375" customWidth="1"/>
+    <col min="27" max="27" width="49.140625" customWidth="1"/>
     <col min="28" max="28" width="41.28515625" customWidth="1"/>
     <col min="29" max="29" width="9.140625" style="5"/>
     <col min="30" max="30" width="10.42578125" customWidth="1"/>
@@ -2042,7 +2162,7 @@
         <v>159</v>
       </c>
       <c r="X1" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Y1" s="6" t="s">
         <v>155</v>
@@ -2051,7 +2171,7 @@
         <v>21</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AB1" s="6" t="s">
         <v>103</v>
@@ -2069,67 +2189,67 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="147" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>248</v>
       </c>
       <c r="C2" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>203</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>204</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="S2" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="T2" s="14" t="s">
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="S2" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="T2" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="U2" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="V2" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="W2" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="X2" s="14" t="s">
+      <c r="U2" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="V2" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="W2" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="X2" s="32" t="s">
         <v>81</v>
       </c>
       <c r="Y2" s="17" t="s">
@@ -2146,7 +2266,7 @@
         <v>24</v>
       </c>
       <c r="AD2" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AE2" s="18" t="s">
         <v>209</v>
@@ -2155,797 +2275,960 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>213</v>
+        <v>306</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>309</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>220</v>
+        <v>307</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>229</v>
+        <v>300</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="R3" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="S3" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="T3" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="U3" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="V3" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="W3" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="X3" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="O3" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="P3" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q3" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="R3" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="S3" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="T3" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="U3" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="V3" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="W3" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="X3" s="32" t="s">
         <v>81</v>
       </c>
       <c r="Y3" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14" t="s">
-        <v>221</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="14"/>
       <c r="AB3" s="17" t="s">
-        <v>227</v>
+        <v>313</v>
       </c>
       <c r="AC3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AD3" s="14"/>
-      <c r="AE3" s="14" t="s">
-        <v>231</v>
+      <c r="AD3" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE3" s="18" t="s">
+        <v>314</v>
       </c>
       <c r="AF3" s="14">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" ht="237" thickBot="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>84</v>
+        <v>26</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>220</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>154</v>
+        <v>229</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="N4" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q4" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="R4" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="S4" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="T4" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="W4" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="X4" s="14"/>
+        <v>222</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="K4" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="L4" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="M4" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="N4" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="O4" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="P4" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q4" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="R4" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="S4" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="T4" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="U4" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="V4" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="W4" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="X4" s="32" t="s">
+        <v>81</v>
+      </c>
       <c r="Y4" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z4" s="17" t="s">
-        <v>157</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="Z4" s="14"/>
       <c r="AA4" s="14" t="s">
-        <v>140</v>
+        <v>221</v>
       </c>
       <c r="AB4" s="17" t="s">
-        <v>142</v>
+        <v>227</v>
       </c>
       <c r="AC4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AD4" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE4" s="18" t="s">
-        <v>143</v>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14" t="s">
+        <v>231</v>
       </c>
       <c r="AF4" s="14">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="237" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>197</v>
+        <v>10</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>154</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="N5" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="O5" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="P5" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="S5" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="T5" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="U5" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="V5" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="W5" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="X5" s="14" t="s">
-        <v>81</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="N5" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q5" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="R5" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="S5" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="T5" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="W5" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" s="32"/>
       <c r="Y5" s="17" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="Z5" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA5" s="14"/>
+        <v>157</v>
+      </c>
+      <c r="AA5" s="14" t="s">
+        <v>140</v>
+      </c>
       <c r="AB5" s="17" t="s">
-        <v>192</v>
+        <v>142</v>
       </c>
       <c r="AC5" s="14" t="s">
         <v>24</v>
       </c>
       <c r="AD5" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE5" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF5" s="14">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" ht="237" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="J6" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="M6" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="N6" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="S6" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="T6" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="U6" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="V6" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="W6" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="X6" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y6" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z6" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="AE5" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="AF5" s="14">
+      <c r="AC6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD6" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE6" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF6" s="14">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+    <row r="7" spans="1:32" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="V7" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="W7" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="X7" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y7" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z7" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="AA7" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB7" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="AC7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD7" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="AE7" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="AF7" s="14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" ht="102" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B8" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C8" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E8" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="25" t="s">
+      <c r="F8" s="26"/>
+      <c r="G8" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H8" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="26" t="s">
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="Z6" s="25" t="s">
+      <c r="Z8" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="AA6" s="25" t="s">
+      <c r="AA8" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="25" t="s">
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="AD6" s="25" t="s">
+      <c r="AD8" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="AE6" s="25"/>
-      <c r="AF6" s="25">
+      <c r="AE8" s="25"/>
+      <c r="AF8" s="25">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+    <row r="9" spans="1:32" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B9" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C9" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D9" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E9" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F9" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30" t="s">
+      <c r="G9" s="30"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="M7" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="N7" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="O7" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="P7" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="S7" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="V7" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="W7" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="30"/>
-      <c r="AA7" s="30"/>
-      <c r="AB7" s="31" t="s">
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="M9" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="N9" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="O9" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="P9" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="S9" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="V9" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="W9" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="AC7" s="30" t="s">
+      <c r="AC9" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="AD7" s="30"/>
-      <c r="AE7" s="30"/>
-      <c r="AF7" s="30">
+      <c r="AD9" s="30"/>
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="30">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="10" spans="1:32" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C10" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D10" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E10" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F10" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H10" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I10" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J10" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K10" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="17" t="s">
+      <c r="L10" s="32"/>
+      <c r="M10" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="N8" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="O8" s="14" t="s">
+      <c r="N10" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="O10" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="P8" s="14" t="s">
+      <c r="P10" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="Q8" s="14" t="s">
+      <c r="Q10" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="R8" s="14"/>
-      <c r="S8" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="W8" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="14" t="s">
+      <c r="R10" s="32"/>
+      <c r="S10" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="W10" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="Z8" s="14" t="s">
+      <c r="Z10" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="AA8" s="14" t="s">
+      <c r="AA10" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="AB8" s="14" t="s">
+      <c r="AB10" s="14" t="s">
         <v>116</v>
-      </c>
-      <c r="AC8" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD8" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE8" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="AF8" s="14">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="P9" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q9" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="R9" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="X9" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y9" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="Z9" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="AA9" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="AB9" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="AC9" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD9" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="AE9" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="AF9" s="14">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="O10" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="P10" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q10" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="R10" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="S10" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="T10" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="U10" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="V10" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="W10" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="X10" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y10" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="Z10" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14" t="s">
-        <v>292</v>
       </c>
       <c r="AC10" s="14" t="s">
         <v>24</v>
       </c>
       <c r="AD10" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="AE10" s="18" t="s">
-        <v>254</v>
+        <v>115</v>
+      </c>
+      <c r="AE10" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="AF10" s="14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" ht="259.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>187</v>
+        <v>232</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>287</v>
+        <v>233</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>288</v>
+        <v>233</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>289</v>
+        <v>244</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="V11" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="W11" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="X11" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="O11" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="P11" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q11" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="R11" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="X11" s="32" t="s">
         <v>81</v>
       </c>
       <c r="Y11" s="14" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="Z11" s="17" t="s">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="AA11" s="14" t="s">
-        <v>291</v>
+        <v>241</v>
       </c>
       <c r="AB11" s="14" t="s">
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="AC11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AD11" s="14"/>
+      <c r="AD11" s="14" t="s">
+        <v>234</v>
+      </c>
       <c r="AE11" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="AF11" s="14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="M12" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="N12" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="O12" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q12" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="R12" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="S12" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="T12" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="U12" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="V12" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="W12" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="X12" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y12" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z12" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="AC12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD12" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="AE12" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="AF12" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="V13" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="W13" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="X13" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y13" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z13" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA13" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="AB13" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="18" t="s">
         <v>286</v>
       </c>
-      <c r="AF11" s="14">
+      <c r="AF13" s="14">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AF11">
-    <sortState ref="A2:AF11">
+    <sortState ref="A2:AF13">
       <sortCondition descending="1" ref="AF1:AF11"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="AE8" r:id="rId1" display="http://www.demosdesoftware.com/videos/3002/workflow/automatizacion-de-procesos-documentales-con-adonis-dms/"/>
-    <hyperlink ref="AE3" r:id="rId2" display="http://www.demosdesoftware.com/videos/3019/workflow/automatizacion-de-procesos-documentales-con-auraportal-ibpms/"/>
-    <hyperlink ref="AE4" r:id="rId3" display="http://www.demosdesoftware.com/videos/3003/workflow/automatizacion-de-procesos-documentales-con-bonitasoft-y-alfresco/"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="AE5" r:id="rId5"/>
+    <hyperlink ref="AE10" r:id="rId1" display="http://www.demosdesoftware.com/videos/3002/workflow/automatizacion-de-procesos-documentales-con-adonis-dms/"/>
+    <hyperlink ref="AE4" r:id="rId2" display="http://www.demosdesoftware.com/videos/3019/workflow/automatizacion-de-procesos-documentales-con-auraportal-ibpms/"/>
+    <hyperlink ref="AE5" r:id="rId3" display="http://www.demosdesoftware.com/videos/3003/workflow/automatizacion-de-procesos-documentales-con-bonitasoft-y-alfresco/"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="AE6" r:id="rId5"/>
     <hyperlink ref="C2" r:id="rId6"/>
     <hyperlink ref="B2" r:id="rId7" display="http://www.oracle.com"/>
     <hyperlink ref="AE2" r:id="rId8" display="https://youtu.be/HXhWpu17N6c"/>
-    <hyperlink ref="B3" r:id="rId9"/>
-    <hyperlink ref="C3" r:id="rId10"/>
-    <hyperlink ref="C7" r:id="rId11"/>
-    <hyperlink ref="B7" r:id="rId12"/>
-    <hyperlink ref="B9" r:id="rId13"/>
-    <hyperlink ref="C9" r:id="rId14"/>
-    <hyperlink ref="AE9" r:id="rId15"/>
-    <hyperlink ref="AE10" r:id="rId16" display="https://youtu.be/SDVT6PWXC_k"/>
-    <hyperlink ref="C10" r:id="rId17"/>
-    <hyperlink ref="AE11" r:id="rId18"/>
-    <hyperlink ref="C11" r:id="rId19"/>
+    <hyperlink ref="B4" r:id="rId9"/>
+    <hyperlink ref="C4" r:id="rId10"/>
+    <hyperlink ref="C9" r:id="rId11"/>
+    <hyperlink ref="B9" r:id="rId12"/>
+    <hyperlink ref="B11" r:id="rId13"/>
+    <hyperlink ref="C11" r:id="rId14"/>
+    <hyperlink ref="AE11" r:id="rId15"/>
+    <hyperlink ref="AE12" r:id="rId16" display="https://youtu.be/SDVT6PWXC_k"/>
+    <hyperlink ref="C12" r:id="rId17"/>
+    <hyperlink ref="AE13" r:id="rId18"/>
+    <hyperlink ref="C13" r:id="rId19"/>
+    <hyperlink ref="B7" r:id="rId20" display="www.webratio.com"/>
+    <hyperlink ref="C7" r:id="rId21"/>
+    <hyperlink ref="AE7" r:id="rId22" display="https://youtu.be/2egC5-WCPlg?list=PLWL2rmGHZGqThj19MUBibEeP4LRAPsQPF_x000a_"/>
+    <hyperlink ref="C3" r:id="rId23" display="https://www.processmaker.com/products/editions"/>
+    <hyperlink ref="AE3" r:id="rId24" display="https://www.processmaker.com/sites/all/themes/pmthemev2/videos/3minteaser_newforms.mp4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>
 
@@ -2953,8 +3236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3033,7 +3316,7 @@
         <v>159</v>
       </c>
       <c r="X1" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Y1" s="6" t="s">
         <v>155</v>
@@ -3042,7 +3325,7 @@
         <v>21</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AB1" s="6" t="s">
         <v>103</v>
@@ -3071,7 +3354,7 @@
         <v>72</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>152</v>
@@ -3126,7 +3409,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="327" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" ht="315.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>100</v>
       </c>
@@ -3134,19 +3417,19 @@
         <v>12</v>
       </c>
       <c r="C3" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>172</v>
-      </c>
       <c r="F3" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>168</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>169</v>
       </c>
       <c r="H3" s="14" t="s">
         <v>101</v>
@@ -3183,13 +3466,13 @@
         <v>96</v>
       </c>
       <c r="Z3" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA3" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="AA3" s="14" t="s">
+      <c r="AB3" s="14" t="s">
         <v>174</v>
-      </c>
-      <c r="AB3" s="14" t="s">
-        <v>175</v>
       </c>
       <c r="AC3" s="14" t="s">
         <v>24</v>
@@ -3198,7 +3481,7 @@
         <v>6</v>
       </c>
       <c r="AE3" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF3" s="14">
         <v>30</v>
@@ -3215,13 +3498,13 @@
         <v>75</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E4" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>177</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>178</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>74</v>
@@ -3248,16 +3531,16 @@
       <c r="W4" s="14"/>
       <c r="X4" s="14"/>
       <c r="Y4" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z4" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="Z4" s="14" t="s">
+      <c r="AA4" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="AA4" s="14" t="s">
+      <c r="AB4" s="14" t="s">
         <v>182</v>
-      </c>
-      <c r="AB4" s="14" t="s">
-        <v>183</v>
       </c>
       <c r="AC4" s="14" t="s">
         <v>24</v>
@@ -3281,7 +3564,7 @@
         <v>69</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>146</v>
@@ -3353,11 +3636,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF24"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="8" ySplit="2" topLeftCell="I22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3433,7 +3716,7 @@
         <v>159</v>
       </c>
       <c r="X1" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Y1" s="6" t="s">
         <v>155</v>
@@ -3442,7 +3725,7 @@
         <v>21</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AB1" s="6" t="s">
         <v>103</v>
@@ -3471,7 +3754,7 @@
         <v>275</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="17" t="s">
@@ -3603,7 +3886,7 @@
         <v>270</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="17" t="s">
@@ -3669,7 +3952,7 @@
         <v>280</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>282</v>
@@ -4338,7 +4621,7 @@
       <c r="AE21" s="14"/>
       <c r="AF21" s="14"/>
     </row>
-    <row r="22" spans="1:32" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>65</v>
       </c>
@@ -4347,25 +4630,37 @@
         <v>66</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="G22" s="14"/>
+        <v>316</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>315</v>
+      </c>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
+      <c r="K22" s="14" t="s">
+        <v>81</v>
+      </c>
       <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
+      <c r="M22" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="N22" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="O22" s="14" t="s">
+        <v>81</v>
+      </c>
       <c r="P22" s="14"/>
       <c r="Q22" s="14"/>
       <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
+      <c r="S22" s="14" t="s">
+        <v>81</v>
+      </c>
       <c r="T22" s="14"/>
       <c r="U22" s="14"/>
       <c r="V22" s="14"/>
@@ -4404,10 +4699,10 @@
     </row>
     <row r="24" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -4421,10 +4716,11 @@
         <v>24</v>
       </c>
       <c r="AE24" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AF24"/>
   <hyperlinks>
     <hyperlink ref="AE3" r:id="rId1" display="http://www.demosdesoftware.com/videos/3010/workflow/automatizacion-de-procesos-documentales-con-athento/"/>
     <hyperlink ref="AE4" r:id="rId2" display="http://www.demosdesoftware.com/videos/3012/workflow/automatizacion-de-procesos-documentales-con-onbase/"/>

--- a/drafts/bpm/comparativas/COMPARATIVAS.xlsx
+++ b/drafts/bpm/comparativas/COMPARATIVAS.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6195" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6195" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="GLOSARIO" sheetId="3" r:id="rId1"/>
     <sheet name="COMPARATIVA-SW-MOTORES-BPM" sheetId="2" r:id="rId2"/>
     <sheet name="COMPARATIVA-SW-MODELADO-BPM" sheetId="4" r:id="rId3"/>
     <sheet name="COMPARATIVA-SW-GESTOR-PROC-DOC-" sheetId="5" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'COMPARATIVA-SW-GESTOR-PROC-DOC-'!$A$1:$AF$22</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="342">
   <si>
     <t>ADONIS: CE</t>
   </si>
@@ -2148,11 +2149,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5074,4 +5075,457 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="12" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15" style="3" customWidth="1"/>
+    <col min="8" max="8" width="41.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="I2" s="12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="147" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="I3" s="12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="I4" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="124.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="I5" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="237" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="I6" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="237" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="I7" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="I8" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="102" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="24"/>
+      <c r="I9" s="23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="F10" s="29"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="I10" s="28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="I11" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="259.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I12" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="I13" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="I14" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="I15" s="12">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="http://www.oracle.com"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B10" r:id="rId3"/>
+    <hyperlink ref="B12" r:id="rId4"/>
+    <hyperlink ref="B8" r:id="rId5" display="www.webratio.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/drafts/bpm/comparativas/COMPARATIVAS.xlsx
+++ b/drafts/bpm/comparativas/COMPARATIVAS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6195" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6195" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GLOSARIO" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="345">
   <si>
     <t>ADONIS: CE</t>
   </si>
@@ -1337,6 +1337,15 @@
   <si>
     <t>Motor de procesos desarrolado en .net, aunque parece que está disponible para java y se puede desplegar en linux.
 Muy fuerte en la parte de modelado y documentacion de procesos.</t>
+  </si>
+  <si>
+    <t>wso2</t>
+  </si>
+  <si>
+    <t>https://wso2.com/products/business-process-server/</t>
+  </si>
+  <si>
+    <t>WSO2 Business Process Server (WSO2 BPS)</t>
   </si>
 </sst>
 </file>
@@ -2147,13 +2156,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF15"/>
+  <dimension ref="A1:AF16"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3458,12 +3467,48 @@
         <v>10</v>
       </c>
     </row>
+    <row r="16" spans="1:32" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="16"/>
+      <c r="AF16" s="12"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AF11">
-    <sortState ref="A2:AF15">
-      <sortCondition descending="1" ref="AF1:AF11"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:AF11"/>
   <hyperlinks>
     <hyperlink ref="AE11" r:id="rId1" display="http://www.demosdesoftware.com/videos/3002/workflow/automatizacion-de-procesos-documentales-con-adonis-dms/"/>
     <hyperlink ref="AE4" r:id="rId2" display="http://www.demosdesoftware.com/videos/3019/workflow/automatizacion-de-procesos-documentales-con-auraportal-ibpms/"/>
@@ -3493,9 +3538,10 @@
     <hyperlink ref="AE15" r:id="rId26" display="https://youtu.be/9wCVWbz5Nho"/>
     <hyperlink ref="AE5" r:id="rId27" display="https://www.youtube.com/watch?v=ZotYO-y-8KI&amp;list=PL-6mNeLaDVHCGh21C-4ExP3qmcQSHxd6g_x000a_"/>
     <hyperlink ref="C5" r:id="rId28"/>
+    <hyperlink ref="C16" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
 </worksheet>
 </file>
 
@@ -3507,7 +3553,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3946,10 +3992,10 @@
   <dimension ref="A1:AF23"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5081,7 +5127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H15"/>
     </sheetView>
   </sheetViews>

--- a/drafts/bpm/comparativas/COMPARATIVAS.xlsx
+++ b/drafts/bpm/comparativas/COMPARATIVAS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="345">
   <si>
     <t>ADONIS: CE</t>
   </si>
@@ -2159,10 +2159,10 @@
   <dimension ref="A1:AF16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2784,7 +2784,9 @@
       <c r="P7" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="30"/>
+      <c r="Q7" s="30" t="s">
+        <v>113</v>
+      </c>
       <c r="R7" s="30" t="s">
         <v>80</v>
       </c>

--- a/drafts/bpm/comparativas/COMPARATIVAS.xlsx
+++ b/drafts/bpm/comparativas/COMPARATIVAS.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4805A230-C99E-43CA-95B6-7512EB0F8023}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6195" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GLOSARIO" sheetId="3" r:id="rId1"/>
@@ -1351,7 +1352,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1688,7 +1689,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Buena" xfId="2" builtinId="26"/>
+    <cellStyle name="Bueno" xfId="2" builtinId="26"/>
     <cellStyle name="Celda de comprobación" xfId="3" builtinId="23"/>
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1698,6 +1699,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1746,7 +1750,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1779,9 +1783,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1814,6 +1835,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1989,20 +2027,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="6"/>
-    <col min="2" max="2" width="130.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="6"/>
+    <col min="2" max="2" width="130.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>76</v>
       </c>
@@ -2010,7 +2048,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="117.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="117.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>92</v>
       </c>
@@ -2018,7 +2056,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>235</v>
       </c>
@@ -2026,7 +2064,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>109</v>
       </c>
@@ -2034,7 +2072,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>128</v>
       </c>
@@ -2042,7 +2080,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>126</v>
       </c>
@@ -2050,7 +2088,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>294</v>
       </c>
@@ -2058,7 +2096,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>182</v>
       </c>
@@ -2066,7 +2104,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>82</v>
       </c>
@@ -2074,7 +2112,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>75</v>
       </c>
@@ -2082,7 +2120,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>89</v>
       </c>
@@ -2090,63 +2128,63 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B12">
-    <sortState ref="A2:B12">
+  <autoFilter ref="A1:B12" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B12">
       <sortCondition ref="A1:A12"/>
     </sortState>
   </autoFilter>
@@ -2155,49 +2193,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
     <col min="4" max="4" width="12" style="3" customWidth="1"/>
     <col min="5" max="5" width="19" style="3" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="34" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" style="34" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="34" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="34" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" style="34" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" style="34" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" style="34" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" style="34" customWidth="1"/>
-    <col min="16" max="18" width="13.7109375" style="34" customWidth="1"/>
-    <col min="19" max="19" width="13.85546875" style="34" customWidth="1"/>
-    <col min="20" max="21" width="14.28515625" style="34" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="34" customWidth="1"/>
-    <col min="23" max="23" width="11.140625" style="34" customWidth="1"/>
-    <col min="24" max="24" width="18.140625" style="34" customWidth="1"/>
-    <col min="25" max="25" width="22.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="22.81640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.26953125" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" style="34" customWidth="1"/>
+    <col min="9" max="9" width="17.54296875" style="34" customWidth="1"/>
+    <col min="10" max="10" width="13.7265625" style="34" customWidth="1"/>
+    <col min="11" max="11" width="13.26953125" style="34" customWidth="1"/>
+    <col min="12" max="12" width="11.1796875" style="34" customWidth="1"/>
+    <col min="13" max="13" width="18.1796875" style="34" customWidth="1"/>
+    <col min="14" max="14" width="12.26953125" style="34" customWidth="1"/>
+    <col min="15" max="15" width="13.26953125" style="34" customWidth="1"/>
+    <col min="16" max="18" width="13.7265625" style="34" customWidth="1"/>
+    <col min="19" max="19" width="13.81640625" style="34" customWidth="1"/>
+    <col min="20" max="21" width="14.26953125" style="34" customWidth="1"/>
+    <col min="22" max="22" width="13.453125" style="34" customWidth="1"/>
+    <col min="23" max="23" width="11.1796875" style="34" customWidth="1"/>
+    <col min="24" max="24" width="18.1796875" style="34" customWidth="1"/>
+    <col min="25" max="25" width="22.7265625" style="3" customWidth="1"/>
     <col min="26" max="26" width="15" style="3" customWidth="1"/>
-    <col min="27" max="27" width="49.140625" customWidth="1"/>
-    <col min="28" max="28" width="41.28515625" customWidth="1"/>
-    <col min="29" max="29" width="9.140625" style="3"/>
-    <col min="30" max="30" width="10.42578125" customWidth="1"/>
+    <col min="27" max="27" width="49.1796875" customWidth="1"/>
+    <col min="28" max="28" width="41.26953125" customWidth="1"/>
+    <col min="29" max="29" width="9.1796875" style="3"/>
+    <col min="30" max="30" width="10.453125" customWidth="1"/>
     <col min="31" max="31" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>125</v>
       </c>
@@ -2295,7 +2333,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" ht="92.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>198</v>
       </c>
@@ -2381,7 +2419,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>304</v>
       </c>
@@ -2463,7 +2501,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" ht="219" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -2557,7 +2595,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>59</v>
       </c>
@@ -2643,7 +2681,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="237" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" ht="230.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>143</v>
       </c>
@@ -2735,7 +2773,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="237" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" ht="219" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>181</v>
       </c>
@@ -2831,7 +2869,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>292</v>
       </c>
@@ -2907,7 +2945,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="102" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" ht="92.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="20" t="s">
         <v>3</v>
       </c>
@@ -2971,7 +3009,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="25" t="s">
         <v>244</v>
       </c>
@@ -3045,7 +3083,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" ht="138.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -3133,7 +3171,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="259.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" ht="230.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>230</v>
       </c>
@@ -3217,7 +3255,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>247</v>
       </c>
@@ -3313,7 +3351,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" ht="104" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>184</v>
       </c>
@@ -3389,7 +3427,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" ht="173" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>64</v>
       </c>
@@ -3469,7 +3507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" ht="35" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>344</v>
       </c>
@@ -3510,37 +3548,37 @@
       <c r="AF16" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AF11"/>
+  <autoFilter ref="A1:AF11" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <hyperlinks>
-    <hyperlink ref="AE11" r:id="rId1" display="http://www.demosdesoftware.com/videos/3002/workflow/automatizacion-de-procesos-documentales-con-adonis-dms/"/>
-    <hyperlink ref="AE4" r:id="rId2" display="http://www.demosdesoftware.com/videos/3019/workflow/automatizacion-de-procesos-documentales-con-auraportal-ibpms/"/>
-    <hyperlink ref="AE6" r:id="rId3" display="http://www.demosdesoftware.com/videos/3003/workflow/automatizacion-de-procesos-documentales-con-bonitasoft-y-alfresco/"/>
-    <hyperlink ref="C7" r:id="rId4"/>
-    <hyperlink ref="AE7" r:id="rId5"/>
-    <hyperlink ref="C2" r:id="rId6"/>
-    <hyperlink ref="B2" r:id="rId7" display="http://www.oracle.com"/>
-    <hyperlink ref="AE2" r:id="rId8" display="https://youtu.be/HXhWpu17N6c"/>
-    <hyperlink ref="B4" r:id="rId9"/>
-    <hyperlink ref="C4" r:id="rId10"/>
-    <hyperlink ref="C10" r:id="rId11"/>
-    <hyperlink ref="B10" r:id="rId12"/>
-    <hyperlink ref="B12" r:id="rId13"/>
-    <hyperlink ref="C12" r:id="rId14"/>
-    <hyperlink ref="AE12" r:id="rId15"/>
-    <hyperlink ref="AE13" r:id="rId16" display="https://youtu.be/SDVT6PWXC_k"/>
-    <hyperlink ref="C13" r:id="rId17"/>
-    <hyperlink ref="AE14" r:id="rId18"/>
-    <hyperlink ref="C14" r:id="rId19"/>
-    <hyperlink ref="B8" r:id="rId20" display="www.webratio.com"/>
-    <hyperlink ref="C8" r:id="rId21"/>
-    <hyperlink ref="AE8" r:id="rId22" display="https://youtu.be/2egC5-WCPlg?list=PLWL2rmGHZGqThj19MUBibEeP4LRAPsQPF_x000a_"/>
-    <hyperlink ref="C3" r:id="rId23" display="https://www.processmaker.com/products/editions"/>
-    <hyperlink ref="AE3" r:id="rId24" display="https://www.processmaker.com/sites/all/themes/pmthemev2/videos/3minteaser_newforms.mp4"/>
-    <hyperlink ref="C15" r:id="rId25"/>
-    <hyperlink ref="AE15" r:id="rId26" display="https://youtu.be/9wCVWbz5Nho"/>
-    <hyperlink ref="AE5" r:id="rId27" display="https://www.youtube.com/watch?v=ZotYO-y-8KI&amp;list=PL-6mNeLaDVHCGh21C-4ExP3qmcQSHxd6g_x000a_"/>
-    <hyperlink ref="C5" r:id="rId28"/>
-    <hyperlink ref="C16" r:id="rId29"/>
+    <hyperlink ref="AE11" r:id="rId1" display="http://www.demosdesoftware.com/videos/3002/workflow/automatizacion-de-procesos-documentales-con-adonis-dms/" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="AE4" r:id="rId2" display="http://www.demosdesoftware.com/videos/3019/workflow/automatizacion-de-procesos-documentales-con-auraportal-ibpms/" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="AE6" r:id="rId3" display="http://www.demosdesoftware.com/videos/3003/workflow/automatizacion-de-procesos-documentales-con-bonitasoft-y-alfresco/" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="AE7" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="C2" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="B2" r:id="rId7" display="http://www.oracle.com" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="AE2" r:id="rId8" display="https://youtu.be/HXhWpu17N6c" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="B4" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="C4" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="C10" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="B10" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="B12" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="C12" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="AE12" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="AE13" r:id="rId16" display="https://youtu.be/SDVT6PWXC_k" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="C13" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="AE14" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="C14" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="B8" r:id="rId20" display="www.webratio.com" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="C8" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="AE8" r:id="rId22" display="https://youtu.be/2egC5-WCPlg?list=PLWL2rmGHZGqThj19MUBibEeP4LRAPsQPF_x000a_" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="C3" r:id="rId23" display="https://www.processmaker.com/products/editions" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="AE3" r:id="rId24" display="https://www.processmaker.com/sites/all/themes/pmthemev2/videos/3minteaser_newforms.mp4" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="C15" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="AE15" r:id="rId26" display="https://youtu.be/9wCVWbz5Nho" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="AE5" r:id="rId27" display="https://www.youtube.com/watch?v=ZotYO-y-8KI&amp;list=PL-6mNeLaDVHCGh21C-4ExP3qmcQSHxd6g_x000a_" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="C5" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="C16" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
@@ -3548,7 +3586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AF6"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -3558,12 +3596,12 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>125</v>
       </c>
@@ -3661,7 +3699,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="169.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" ht="161.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3727,7 +3765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="315.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" ht="322.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>99</v>
       </c>
@@ -3805,7 +3843,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="158.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" ht="150" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3871,7 +3909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" ht="138.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -3939,7 +3977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="237" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" ht="230.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>337</v>
       </c>
@@ -3978,19 +4016,19 @@
       <c r="AF6" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AF5"/>
+  <autoFilter ref="A1:AF5" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="AE3" r:id="rId2"/>
-    <hyperlink ref="AE5" r:id="rId3"/>
-    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="AE3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="AE5" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AF23"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -4000,9 +4038,9 @@
       <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:32" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>125</v>
       </c>
@@ -4100,7 +4138,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="114" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" ht="114" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -4160,7 +4198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="360.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" ht="368.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -4232,7 +4270,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="237" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" ht="242" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
@@ -4298,7 +4336,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" ht="138.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
@@ -4362,7 +4400,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" ht="92.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -4402,7 +4440,7 @@
       </c>
       <c r="AF6" s="12"/>
     </row>
-    <row r="7" spans="1:32" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" ht="92.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -4442,7 +4480,7 @@
       </c>
       <c r="AF7" s="12"/>
     </row>
-    <row r="8" spans="1:32" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" ht="92.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -4482,7 +4520,7 @@
       </c>
       <c r="AF8" s="12"/>
     </row>
-    <row r="9" spans="1:32" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" ht="92.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -4522,7 +4560,7 @@
       </c>
       <c r="AF9" s="12"/>
     </row>
-    <row r="10" spans="1:32" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" ht="81" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -4560,7 +4598,7 @@
       </c>
       <c r="AF10" s="12"/>
     </row>
-    <row r="11" spans="1:32" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" ht="81" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
@@ -4598,7 +4636,7 @@
       </c>
       <c r="AF11" s="12"/>
     </row>
-    <row r="12" spans="1:32" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" ht="92.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
@@ -4636,7 +4674,7 @@
       </c>
       <c r="AF12" s="12"/>
     </row>
-    <row r="13" spans="1:32" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" ht="92.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
@@ -4674,7 +4712,7 @@
       </c>
       <c r="AF13" s="12"/>
     </row>
-    <row r="14" spans="1:32" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>48</v>
       </c>
@@ -4712,7 +4750,7 @@
       <c r="AE14" s="12"/>
       <c r="AF14" s="12"/>
     </row>
-    <row r="15" spans="1:32" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>50</v>
       </c>
@@ -4750,7 +4788,7 @@
       <c r="AE15" s="12"/>
       <c r="AF15" s="12"/>
     </row>
-    <row r="16" spans="1:32" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>53</v>
       </c>
@@ -4788,7 +4826,7 @@
       <c r="AE16" s="12"/>
       <c r="AF16" s="12"/>
     </row>
-    <row r="17" spans="1:32" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>55</v>
       </c>
@@ -4826,7 +4864,7 @@
       <c r="AE17" s="12"/>
       <c r="AF17" s="12"/>
     </row>
-    <row r="18" spans="1:32" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>57</v>
       </c>
@@ -4864,7 +4902,7 @@
       <c r="AE18" s="12"/>
       <c r="AF18" s="12"/>
     </row>
-    <row r="19" spans="1:32" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>60</v>
       </c>
@@ -4902,7 +4940,7 @@
       <c r="AE19" s="12"/>
       <c r="AF19" s="12"/>
     </row>
-    <row r="20" spans="1:32" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>62</v>
       </c>
@@ -4940,7 +4978,7 @@
       <c r="AE20" s="12"/>
       <c r="AF20" s="12"/>
     </row>
-    <row r="21" spans="1:32" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>160</v>
       </c>
@@ -4982,7 +5020,7 @@
       <c r="AE21" s="16"/>
       <c r="AF21" s="12"/>
     </row>
-    <row r="22" spans="1:32" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>163</v>
       </c>
@@ -5024,7 +5062,7 @@
       </c>
       <c r="AF22" s="12"/>
     </row>
-    <row r="23" spans="1:32" ht="315.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32" ht="322.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>322</v>
       </c>
@@ -5095,57 +5133,57 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AF22"/>
+  <autoFilter ref="A1:AF22" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <hyperlinks>
-    <hyperlink ref="AE3" r:id="rId1" display="http://www.demosdesoftware.com/videos/3010/workflow/automatizacion-de-procesos-documentales-con-athento/"/>
-    <hyperlink ref="AE4" r:id="rId2" display="http://www.demosdesoftware.com/videos/3012/workflow/automatizacion-de-procesos-documentales-con-onbase/"/>
-    <hyperlink ref="AE2" r:id="rId3"/>
-    <hyperlink ref="AE5" r:id="rId4" display="http://www.demosdesoftware.com/videos/3013/workflow/procesos-documentales-con-r2-docuo/"/>
-    <hyperlink ref="C3" r:id="rId5"/>
-    <hyperlink ref="C4" r:id="rId6"/>
-    <hyperlink ref="C2" r:id="rId7"/>
-    <hyperlink ref="B5" r:id="rId8"/>
-    <hyperlink ref="C5" r:id="rId9"/>
-    <hyperlink ref="AE6" r:id="rId10"/>
-    <hyperlink ref="AE7" r:id="rId11"/>
-    <hyperlink ref="AE8" r:id="rId12"/>
-    <hyperlink ref="AE9" r:id="rId13"/>
-    <hyperlink ref="AE10" r:id="rId14"/>
-    <hyperlink ref="AE11" r:id="rId15"/>
-    <hyperlink ref="AE12" r:id="rId16"/>
-    <hyperlink ref="AE13" r:id="rId17"/>
-    <hyperlink ref="B21" r:id="rId18"/>
-    <hyperlink ref="C21" r:id="rId19"/>
-    <hyperlink ref="B22" r:id="rId20"/>
-    <hyperlink ref="AE22" r:id="rId21"/>
-    <hyperlink ref="AE23" r:id="rId22" display="https://youtu.be/UqtfW08b0II"/>
-    <hyperlink ref="C23" r:id="rId23"/>
+    <hyperlink ref="AE3" r:id="rId1" display="http://www.demosdesoftware.com/videos/3010/workflow/automatizacion-de-procesos-documentales-con-athento/" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="AE4" r:id="rId2" display="http://www.demosdesoftware.com/videos/3012/workflow/automatizacion-de-procesos-documentales-con-onbase/" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="AE2" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="AE5" r:id="rId4" display="http://www.demosdesoftware.com/videos/3013/workflow/procesos-documentales-con-r2-docuo/" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="C3" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="C4" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="C2" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="B5" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="C5" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="AE6" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="AE7" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="AE8" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="AE9" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="AE10" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="AE11" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
+    <hyperlink ref="AE12" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
+    <hyperlink ref="AE13" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
+    <hyperlink ref="B21" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
+    <hyperlink ref="C21" r:id="rId19" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
+    <hyperlink ref="B22" r:id="rId20" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
+    <hyperlink ref="AE22" r:id="rId21" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
+    <hyperlink ref="AE23" r:id="rId22" display="https://youtu.be/UqtfW08b0II" xr:uid="{00000000-0004-0000-0300-000015000000}"/>
+    <hyperlink ref="C23" r:id="rId23" xr:uid="{00000000-0004-0000-0300-000016000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="12" style="3" customWidth="1"/>
     <col min="4" max="4" width="19" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.81640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="22.7265625" style="3" customWidth="1"/>
     <col min="7" max="7" width="15" style="3" customWidth="1"/>
-    <col min="8" max="8" width="41.28515625" customWidth="1"/>
+    <col min="8" max="8" width="41.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>125</v>
       </c>
@@ -5174,7 +5212,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="92.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>198</v>
       </c>
@@ -5203,7 +5241,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="147" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="150" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>304</v>
       </c>
@@ -5230,7 +5268,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="219" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -5257,7 +5295,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="124.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="127" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>59</v>
       </c>
@@ -5284,7 +5322,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="237" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="230.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>143</v>
       </c>
@@ -5313,7 +5351,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="237" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="219" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>181</v>
       </c>
@@ -5342,7 +5380,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="115.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>292</v>
       </c>
@@ -5371,7 +5409,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="102" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="92.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="20" t="s">
         <v>3</v>
       </c>
@@ -5396,7 +5434,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="69.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="25" t="s">
         <v>244</v>
       </c>
@@ -5421,7 +5459,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="81" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -5450,7 +5488,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="259.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="230.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>230</v>
       </c>
@@ -5479,7 +5517,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="127" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>247</v>
       </c>
@@ -5508,7 +5546,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="104" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>184</v>
       </c>
@@ -5537,7 +5575,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="173" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>64</v>
       </c>
@@ -5568,11 +5606,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://www.oracle.com"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B10" r:id="rId3"/>
-    <hyperlink ref="B12" r:id="rId4"/>
-    <hyperlink ref="B8" r:id="rId5" display="www.webratio.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://www.oracle.com" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="B10" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="B12" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="B8" r:id="rId5" display="www.webratio.com" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
